--- a/REquirement Estimations.xlsx
+++ b/REquirement Estimations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SAMAutomation\SAM\SAM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7B0E3E2-00BC-43DA-9770-85CF0BCB4A96}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DEDA61-90AB-4C23-BCCA-24A03056129F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{11A85534-C6CC-46D9-9A7F-116C480C3734}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="199">
   <si>
     <t>File Tab</t>
   </si>
@@ -623,13 +623,19 @@
   </si>
   <si>
     <t>Insert Object (Edit Text)</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,33 +644,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="20"/>
       <color theme="1"/>
-      <name val="Tw Cen MT"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="20"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="20"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Tw Cen MT"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -792,13 +805,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -806,8 +826,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -815,11 +835,50 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -833,71 +892,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1213,5520 +1227,5529 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11CE17E-1AC3-466A-A104-5C7FF12BF975}">
-  <dimension ref="A1:D653"/>
+  <dimension ref="A1:F653"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A503" workbookViewId="0">
-      <selection activeCell="B525" sqref="B525"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B3" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B5" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B6" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B7" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B8" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B9" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B10" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="14" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C14" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
         <v>1</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
         <v>2</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
         <v>3</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
         <v>4</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="3" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
         <v>5</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
         <v>6</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
         <v>7</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
         <v>8</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
         <v>9</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24">
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
         <v>10</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
         <v>11</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
         <v>12</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
         <v>13</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28">
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
         <v>14</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29">
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
         <v>15</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30">
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
         <v>16</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="3" t="s">
+      <c r="B30" s="8"/>
+      <c r="C30" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
         <v>17</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
         <v>18</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="5"/>
+      <c r="C32" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
         <v>19</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="D33" s="7"/>
+    </row>
+    <row r="34" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
         <v>20</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="D34" s="7"/>
+    </row>
+    <row r="35" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
         <v>21</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="3" t="s">
+      <c r="B35" s="5"/>
+      <c r="C35" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
         <v>22</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="5"/>
+      <c r="C36" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="D36" s="7"/>
+    </row>
+    <row r="37" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="1">
         <v>23</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="5"/>
+      <c r="C37" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="1">
         <v>24</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="3" t="s">
+      <c r="B38" s="8"/>
+      <c r="C38" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="1">
         <v>25</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="1">
         <v>26</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="6" t="s">
+      <c r="B40" s="5"/>
+      <c r="C40" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41">
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="1">
         <v>27</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="6" t="s">
+      <c r="B41" s="5"/>
+      <c r="C41" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42">
+      <c r="D41" s="7"/>
+    </row>
+    <row r="42" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="1">
         <v>28</v>
       </c>
-      <c r="B42" s="17"/>
-      <c r="C42" s="7" t="s">
+      <c r="B42" s="5"/>
+      <c r="C42" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43">
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
         <v>29</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="6" t="s">
+      <c r="B43" s="5"/>
+      <c r="C43" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="D43" s="7"/>
+    </row>
+    <row r="44" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
         <v>30</v>
       </c>
-      <c r="B44" s="17"/>
-      <c r="C44" s="6" t="s">
+      <c r="B44" s="5"/>
+      <c r="C44" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45">
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
         <v>31</v>
       </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="6" t="s">
+      <c r="B45" s="5"/>
+      <c r="C45" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46">
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
         <v>32</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="6" t="s">
+      <c r="B46" s="5"/>
+      <c r="C46" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47">
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
         <v>33</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="6" t="s">
+      <c r="B47" s="5"/>
+      <c r="C47" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48">
+      <c r="D47" s="7"/>
+    </row>
+    <row r="48" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
         <v>34</v>
       </c>
-      <c r="B48" s="17"/>
-      <c r="C48" s="6" t="s">
+      <c r="B48" s="5"/>
+      <c r="C48" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
         <v>35</v>
       </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="6" t="s">
+      <c r="B49" s="5"/>
+      <c r="C49" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="D49" s="7"/>
+    </row>
+    <row r="50" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
         <v>36</v>
       </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="6" t="s">
+      <c r="B50" s="5"/>
+      <c r="C50" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="D50" s="7"/>
+    </row>
+    <row r="51" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
         <v>37</v>
       </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="6" t="s">
+      <c r="B51" s="5"/>
+      <c r="C51" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
         <v>38</v>
       </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="6" t="s">
+      <c r="B52" s="5"/>
+      <c r="C52" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
         <v>39</v>
       </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="6" t="s">
+      <c r="B53" s="5"/>
+      <c r="C53" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
         <v>40</v>
       </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="6" t="s">
+      <c r="B54" s="5"/>
+      <c r="C54" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55">
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
         <v>41</v>
       </c>
-      <c r="B55" s="17"/>
-      <c r="C55" s="6" t="s">
+      <c r="B55" s="5"/>
+      <c r="C55" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56">
+      <c r="D55" s="7"/>
+    </row>
+    <row r="56" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
         <v>42</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="6" t="s">
+      <c r="B56" s="5"/>
+      <c r="C56" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57">
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
         <v>43</v>
       </c>
-      <c r="B57" s="17"/>
-      <c r="C57" s="6" t="s">
+      <c r="B57" s="5"/>
+      <c r="C57" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D57" s="4"/>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58">
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
         <v>44</v>
       </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="6" t="s">
+      <c r="B58" s="5"/>
+      <c r="C58" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D58" s="4"/>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59">
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
         <v>45</v>
       </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="6" t="s">
+      <c r="B59" s="5"/>
+      <c r="C59" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D59" s="4"/>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60">
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
         <v>46</v>
       </c>
-      <c r="B60" s="17"/>
-      <c r="C60" s="6" t="s">
+      <c r="B60" s="5"/>
+      <c r="C60" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D60" s="4"/>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61">
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
         <v>47</v>
       </c>
-      <c r="B61" s="18"/>
-      <c r="C61" s="6" t="s">
+      <c r="B61" s="8"/>
+      <c r="C61" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D61" s="4"/>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62">
+      <c r="D61" s="7"/>
+    </row>
+    <row r="62" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
         <v>48</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="4"/>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63">
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
         <v>49</v>
       </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="6" t="s">
+      <c r="B63" s="5"/>
+      <c r="C63" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="4"/>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64">
+      <c r="D63" s="7"/>
+    </row>
+    <row r="64" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
         <v>50</v>
       </c>
-      <c r="B64" s="17"/>
-      <c r="C64" s="6" t="s">
+      <c r="B64" s="5"/>
+      <c r="C64" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="4"/>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65">
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
         <v>51</v>
       </c>
-      <c r="B65" s="17"/>
-      <c r="C65" s="7" t="s">
+      <c r="B65" s="5"/>
+      <c r="C65" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="4"/>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66">
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
         <v>52</v>
       </c>
-      <c r="B66" s="17"/>
-      <c r="C66" s="6" t="s">
+      <c r="B66" s="5"/>
+      <c r="C66" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="4"/>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67">
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
         <v>53</v>
       </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="6" t="s">
+      <c r="B67" s="5"/>
+      <c r="C67" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68">
+      <c r="D67" s="7"/>
+    </row>
+    <row r="68" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
         <v>54</v>
       </c>
-      <c r="B68" s="17"/>
-      <c r="C68" s="6" t="s">
+      <c r="B68" s="5"/>
+      <c r="C68" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69">
+      <c r="D68" s="7"/>
+    </row>
+    <row r="69" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
         <v>55</v>
       </c>
-      <c r="B69" s="17"/>
-      <c r="C69" s="6" t="s">
+      <c r="B69" s="5"/>
+      <c r="C69" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70">
+      <c r="D69" s="7"/>
+    </row>
+    <row r="70" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
         <v>56</v>
       </c>
-      <c r="B70" s="17"/>
-      <c r="C70" s="6" t="s">
+      <c r="B70" s="5"/>
+      <c r="C70" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="4"/>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71">
+      <c r="D70" s="7"/>
+    </row>
+    <row r="71" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
         <v>57</v>
       </c>
-      <c r="B71" s="17"/>
-      <c r="C71" s="6" t="s">
+      <c r="B71" s="5"/>
+      <c r="C71" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="4"/>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72">
+      <c r="D71" s="7"/>
+    </row>
+    <row r="72" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
         <v>58</v>
       </c>
-      <c r="B72" s="17"/>
-      <c r="C72" s="6" t="s">
+      <c r="B72" s="5"/>
+      <c r="C72" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="4"/>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73">
+      <c r="D72" s="7"/>
+    </row>
+    <row r="73" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
         <v>59</v>
       </c>
-      <c r="B73" s="17"/>
-      <c r="C73" s="6" t="s">
+      <c r="B73" s="5"/>
+      <c r="C73" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74">
+      <c r="D73" s="7"/>
+    </row>
+    <row r="74" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
         <v>60</v>
       </c>
-      <c r="B74" s="17"/>
-      <c r="C74" s="6" t="s">
+      <c r="B74" s="5"/>
+      <c r="C74" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75">
+      <c r="D74" s="7"/>
+    </row>
+    <row r="75" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
         <v>61</v>
       </c>
-      <c r="B75" s="17"/>
-      <c r="C75" s="6" t="s">
+      <c r="B75" s="5"/>
+      <c r="C75" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76">
+      <c r="D75" s="7"/>
+    </row>
+    <row r="76" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
         <v>62</v>
       </c>
-      <c r="B76" s="17"/>
-      <c r="C76" s="6" t="s">
+      <c r="B76" s="5"/>
+      <c r="C76" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77">
+      <c r="D76" s="7"/>
+    </row>
+    <row r="77" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
         <v>63</v>
       </c>
-      <c r="B77" s="17"/>
-      <c r="C77" s="6" t="s">
+      <c r="B77" s="5"/>
+      <c r="C77" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D77" s="4"/>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78">
+      <c r="D77" s="7"/>
+    </row>
+    <row r="78" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
         <v>64</v>
       </c>
-      <c r="B78" s="17"/>
-      <c r="C78" s="6" t="s">
+      <c r="B78" s="5"/>
+      <c r="C78" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D78" s="4"/>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79">
+      <c r="D78" s="7"/>
+    </row>
+    <row r="79" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
         <v>65</v>
       </c>
-      <c r="B79" s="17"/>
-      <c r="C79" s="6" t="s">
+      <c r="B79" s="5"/>
+      <c r="C79" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D79" s="4"/>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80">
+      <c r="D79" s="7"/>
+    </row>
+    <row r="80" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
         <v>66</v>
       </c>
-      <c r="B80" s="17"/>
-      <c r="C80" s="6" t="s">
+      <c r="B80" s="5"/>
+      <c r="C80" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D80" s="4"/>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81">
+      <c r="D80" s="7"/>
+    </row>
+    <row r="81" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
         <v>67</v>
       </c>
-      <c r="B81" s="17"/>
-      <c r="C81" s="6" t="s">
+      <c r="B81" s="5"/>
+      <c r="C81" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82">
+      <c r="D81" s="7"/>
+    </row>
+    <row r="82" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
         <v>68</v>
       </c>
-      <c r="B82" s="17"/>
-      <c r="C82" s="6" t="s">
+      <c r="B82" s="5"/>
+      <c r="C82" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83">
+      <c r="D82" s="7"/>
+    </row>
+    <row r="83" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A83" s="1">
         <v>69</v>
       </c>
-      <c r="B83" s="17"/>
-      <c r="C83" s="6" t="s">
+      <c r="B83" s="5"/>
+      <c r="C83" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84">
+      <c r="D83" s="7"/>
+    </row>
+    <row r="84" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A84" s="1">
         <v>70</v>
       </c>
-      <c r="B84" s="18"/>
-      <c r="C84" s="6" t="s">
+      <c r="B84" s="8"/>
+      <c r="C84" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D84" s="4"/>
-    </row>
-    <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85">
+      <c r="D84" s="7"/>
+    </row>
+    <row r="85" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A85" s="1">
         <v>71</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86">
+      <c r="D85" s="7"/>
+    </row>
+    <row r="86" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A86" s="1">
         <v>72</v>
       </c>
-      <c r="B86" s="17"/>
-      <c r="C86" s="6" t="s">
+      <c r="B86" s="5"/>
+      <c r="C86" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87">
+      <c r="D86" s="7"/>
+    </row>
+    <row r="87" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A87" s="1">
         <v>73</v>
       </c>
-      <c r="B87" s="17"/>
-      <c r="C87" s="6" t="s">
+      <c r="B87" s="5"/>
+      <c r="C87" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88">
+      <c r="D87" s="7"/>
+    </row>
+    <row r="88" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A88" s="1">
         <v>74</v>
       </c>
-      <c r="B88" s="17"/>
-      <c r="C88" s="7" t="s">
+      <c r="B88" s="5"/>
+      <c r="C88" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="4"/>
-    </row>
-    <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89">
+      <c r="D88" s="7"/>
+    </row>
+    <row r="89" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A89" s="1">
         <v>75</v>
       </c>
-      <c r="B89" s="17"/>
-      <c r="C89" s="6" t="s">
+      <c r="B89" s="5"/>
+      <c r="C89" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="4"/>
-    </row>
-    <row r="90" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90">
+      <c r="D89" s="7"/>
+    </row>
+    <row r="90" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A90" s="1">
         <v>76</v>
       </c>
-      <c r="B90" s="17"/>
-      <c r="C90" s="6" t="s">
+      <c r="B90" s="5"/>
+      <c r="C90" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D90" s="4"/>
-    </row>
-    <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91">
+      <c r="D90" s="7"/>
+    </row>
+    <row r="91" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A91" s="1">
         <v>77</v>
       </c>
-      <c r="B91" s="17"/>
-      <c r="C91" s="6" t="s">
+      <c r="B91" s="5"/>
+      <c r="C91" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D91" s="4"/>
-    </row>
-    <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92">
+      <c r="D91" s="7"/>
+    </row>
+    <row r="92" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A92" s="1">
         <v>78</v>
       </c>
-      <c r="B92" s="17"/>
-      <c r="C92" s="6" t="s">
+      <c r="B92" s="5"/>
+      <c r="C92" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D92" s="4"/>
-    </row>
-    <row r="93" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93">
+      <c r="D92" s="7"/>
+    </row>
+    <row r="93" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A93" s="1">
         <v>79</v>
       </c>
-      <c r="B93" s="17"/>
-      <c r="C93" s="6" t="s">
+      <c r="B93" s="5"/>
+      <c r="C93" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D93" s="4"/>
-    </row>
-    <row r="94" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94">
+      <c r="D93" s="7"/>
+    </row>
+    <row r="94" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A94" s="1">
         <v>80</v>
       </c>
-      <c r="B94" s="17"/>
-      <c r="C94" s="6" t="s">
+      <c r="B94" s="5"/>
+      <c r="C94" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D94" s="4"/>
-    </row>
-    <row r="95" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95">
+      <c r="D94" s="7"/>
+    </row>
+    <row r="95" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A95" s="1">
         <v>81</v>
       </c>
-      <c r="B95" s="17"/>
-      <c r="C95" s="6" t="s">
+      <c r="B95" s="5"/>
+      <c r="C95" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D95" s="4"/>
-    </row>
-    <row r="96" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96">
+      <c r="D95" s="7"/>
+    </row>
+    <row r="96" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A96" s="1">
         <v>82</v>
       </c>
-      <c r="B96" s="17"/>
-      <c r="C96" s="6" t="s">
+      <c r="B96" s="5"/>
+      <c r="C96" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D96" s="4"/>
-    </row>
-    <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97">
+      <c r="D96" s="7"/>
+    </row>
+    <row r="97" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A97" s="1">
         <v>83</v>
       </c>
-      <c r="B97" s="17"/>
-      <c r="C97" s="6" t="s">
+      <c r="B97" s="5"/>
+      <c r="C97" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D97" s="4"/>
-    </row>
-    <row r="98" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98">
+      <c r="D97" s="7"/>
+    </row>
+    <row r="98" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A98" s="1">
         <v>84</v>
       </c>
-      <c r="B98" s="17"/>
-      <c r="C98" s="6" t="s">
+      <c r="B98" s="5"/>
+      <c r="C98" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D98" s="4"/>
-    </row>
-    <row r="99" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99">
+      <c r="D98" s="7"/>
+    </row>
+    <row r="99" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A99" s="1">
         <v>85</v>
       </c>
-      <c r="B99" s="17"/>
-      <c r="C99" s="6" t="s">
+      <c r="B99" s="5"/>
+      <c r="C99" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D99" s="4"/>
-    </row>
-    <row r="100" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100">
+      <c r="D99" s="7"/>
+    </row>
+    <row r="100" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A100" s="1">
         <v>86</v>
       </c>
-      <c r="B100" s="17"/>
-      <c r="C100" s="6" t="s">
+      <c r="B100" s="5"/>
+      <c r="C100" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D100" s="4"/>
-    </row>
-    <row r="101" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101">
+      <c r="D100" s="7"/>
+    </row>
+    <row r="101" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A101" s="1">
         <v>87</v>
       </c>
-      <c r="B101" s="17"/>
-      <c r="C101" s="6" t="s">
+      <c r="B101" s="5"/>
+      <c r="C101" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D101" s="4"/>
-    </row>
-    <row r="102" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102">
+      <c r="D101" s="7"/>
+    </row>
+    <row r="102" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A102" s="1">
         <v>88</v>
       </c>
-      <c r="B102" s="17"/>
-      <c r="C102" s="6" t="s">
+      <c r="B102" s="5"/>
+      <c r="C102" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D102" s="4"/>
-    </row>
-    <row r="103" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103">
+      <c r="D102" s="7"/>
+    </row>
+    <row r="103" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A103" s="1">
         <v>89</v>
       </c>
-      <c r="B103" s="17"/>
-      <c r="C103" s="6" t="s">
+      <c r="B103" s="5"/>
+      <c r="C103" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D103" s="4"/>
-    </row>
-    <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104">
+      <c r="D103" s="7"/>
+    </row>
+    <row r="104" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A104" s="1">
         <v>90</v>
       </c>
-      <c r="B104" s="17"/>
-      <c r="C104" s="6" t="s">
+      <c r="B104" s="5"/>
+      <c r="C104" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D104" s="4"/>
-    </row>
-    <row r="105" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105">
+      <c r="D104" s="7"/>
+    </row>
+    <row r="105" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A105" s="1">
         <v>91</v>
       </c>
-      <c r="B105" s="17"/>
-      <c r="C105" s="6" t="s">
+      <c r="B105" s="5"/>
+      <c r="C105" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D105" s="4"/>
-    </row>
-    <row r="106" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106">
+      <c r="D105" s="7"/>
+    </row>
+    <row r="106" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A106" s="1">
         <v>92</v>
       </c>
-      <c r="B106" s="17"/>
-      <c r="C106" s="6" t="s">
+      <c r="B106" s="5"/>
+      <c r="C106" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D106" s="4"/>
-    </row>
-    <row r="107" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107">
+      <c r="D106" s="7"/>
+    </row>
+    <row r="107" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A107" s="1">
         <v>93</v>
       </c>
-      <c r="B107" s="18"/>
-      <c r="C107" s="6" t="s">
+      <c r="B107" s="8"/>
+      <c r="C107" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D107" s="4"/>
-    </row>
-    <row r="108" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108">
+      <c r="D107" s="7"/>
+    </row>
+    <row r="108" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A108" s="1">
         <v>94</v>
       </c>
-      <c r="B108" s="19"/>
-      <c r="C108" s="20"/>
-      <c r="D108" s="5"/>
-    </row>
-    <row r="109" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109">
+      <c r="B108" s="11"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="13"/>
+    </row>
+    <row r="109" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A109" s="1">
         <v>95</v>
       </c>
-      <c r="B109" s="16" t="s">
+      <c r="B109" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="C109" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D109" s="4"/>
-    </row>
-    <row r="110" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110">
+      <c r="D109" s="7"/>
+    </row>
+    <row r="110" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A110" s="1">
         <v>96</v>
       </c>
-      <c r="B110" s="17"/>
-      <c r="C110" s="6" t="s">
+      <c r="B110" s="5"/>
+      <c r="C110" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D110" s="4"/>
-    </row>
-    <row r="111" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111">
+      <c r="D110" s="7"/>
+    </row>
+    <row r="111" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A111" s="1">
         <v>97</v>
       </c>
-      <c r="B111" s="17"/>
-      <c r="C111" s="6" t="s">
+      <c r="B111" s="5"/>
+      <c r="C111" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D111" s="4"/>
-    </row>
-    <row r="112" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112">
+      <c r="D111" s="7"/>
+    </row>
+    <row r="112" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A112" s="1">
         <v>98</v>
       </c>
-      <c r="B112" s="17"/>
-      <c r="C112" s="6" t="s">
+      <c r="B112" s="5"/>
+      <c r="C112" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D112" s="4"/>
-    </row>
-    <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113">
+      <c r="D112" s="7"/>
+    </row>
+    <row r="113" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A113" s="1">
         <v>99</v>
       </c>
-      <c r="B113" s="18"/>
-      <c r="C113" s="6" t="s">
+      <c r="B113" s="8"/>
+      <c r="C113" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D113" s="4"/>
-    </row>
-    <row r="114" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114">
+      <c r="D113" s="7"/>
+    </row>
+    <row r="114" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A114" s="1">
         <v>100</v>
       </c>
-      <c r="B114" s="16" t="s">
+      <c r="B114" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="C114" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D114" s="4"/>
-    </row>
-    <row r="115" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115">
+      <c r="D114" s="7"/>
+    </row>
+    <row r="115" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A115" s="1">
         <v>101</v>
       </c>
-      <c r="B115" s="17"/>
-      <c r="C115" s="6" t="s">
+      <c r="B115" s="5"/>
+      <c r="C115" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D115" s="4"/>
-    </row>
-    <row r="116" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116">
+      <c r="D115" s="7"/>
+    </row>
+    <row r="116" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A116" s="1">
         <v>102</v>
       </c>
-      <c r="B116" s="17"/>
-      <c r="C116" s="6" t="s">
+      <c r="B116" s="5"/>
+      <c r="C116" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D116" s="4"/>
-    </row>
-    <row r="117" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117">
+      <c r="D116" s="7"/>
+    </row>
+    <row r="117" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A117" s="1">
         <v>103</v>
       </c>
-      <c r="B117" s="17"/>
-      <c r="C117" s="6" t="s">
+      <c r="B117" s="5"/>
+      <c r="C117" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D117" s="4"/>
-    </row>
-    <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118">
+      <c r="D117" s="7"/>
+    </row>
+    <row r="118" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A118" s="1">
         <v>104</v>
       </c>
-      <c r="B118" s="18"/>
-      <c r="C118" s="6" t="s">
+      <c r="B118" s="8"/>
+      <c r="C118" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D118" s="4"/>
-    </row>
-    <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119">
+      <c r="D118" s="7"/>
+    </row>
+    <row r="119" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A119" s="1">
         <v>105</v>
       </c>
-      <c r="B119" s="16" t="s">
+      <c r="B119" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C119" s="6" t="s">
+      <c r="C119" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D119" s="4"/>
-    </row>
-    <row r="120" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120">
+      <c r="D119" s="7"/>
+    </row>
+    <row r="120" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A120" s="1">
         <v>106</v>
       </c>
-      <c r="B120" s="17"/>
-      <c r="C120" s="6" t="s">
+      <c r="B120" s="5"/>
+      <c r="C120" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D120" s="4"/>
-    </row>
-    <row r="121" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121">
+      <c r="D120" s="7"/>
+    </row>
+    <row r="121" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A121" s="1">
         <v>107</v>
       </c>
-      <c r="B121" s="17"/>
-      <c r="C121" s="6" t="s">
+      <c r="B121" s="5"/>
+      <c r="C121" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D121" s="4"/>
-    </row>
-    <row r="122" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122">
+      <c r="D121" s="7"/>
+    </row>
+    <row r="122" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A122" s="1">
         <v>108</v>
       </c>
-      <c r="B122" s="17"/>
-      <c r="C122" s="6" t="s">
+      <c r="B122" s="5"/>
+      <c r="C122" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D122" s="4"/>
-    </row>
-    <row r="123" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123">
+      <c r="D122" s="7"/>
+    </row>
+    <row r="123" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A123" s="1">
         <v>109</v>
       </c>
-      <c r="B123" s="18"/>
-      <c r="C123" s="6" t="s">
+      <c r="B123" s="8"/>
+      <c r="C123" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D123" s="4"/>
-    </row>
-    <row r="124" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124">
+      <c r="D123" s="7"/>
+    </row>
+    <row r="124" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A124" s="1">
         <v>110</v>
       </c>
-      <c r="B124" s="21"/>
-      <c r="C124" s="22"/>
-      <c r="D124" s="5"/>
-    </row>
-    <row r="125" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125">
+      <c r="B124" s="14"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="13"/>
+    </row>
+    <row r="125" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A125" s="1">
         <v>111</v>
       </c>
-      <c r="B125" s="24" t="s">
+      <c r="B125" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="C125" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D125" s="4"/>
-    </row>
-    <row r="126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126">
+      <c r="D125" s="7"/>
+    </row>
+    <row r="126" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A126" s="1">
         <v>112</v>
       </c>
-      <c r="B126" s="23"/>
-      <c r="C126" s="6" t="s">
+      <c r="B126" s="17"/>
+      <c r="C126" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D126" s="4"/>
-    </row>
-    <row r="127" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127">
+      <c r="D126" s="7"/>
+    </row>
+    <row r="127" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A127" s="1">
         <v>113</v>
       </c>
-      <c r="B127" s="23"/>
-      <c r="C127" s="6" t="s">
+      <c r="B127" s="17"/>
+      <c r="C127" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D127" s="4"/>
-    </row>
-    <row r="128" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128">
+      <c r="D127" s="7"/>
+    </row>
+    <row r="128" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A128" s="1">
         <v>114</v>
       </c>
-      <c r="B128" s="23"/>
-      <c r="C128" s="6" t="s">
+      <c r="B128" s="17"/>
+      <c r="C128" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D128" s="4"/>
-    </row>
-    <row r="129" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129">
+      <c r="D128" s="7"/>
+    </row>
+    <row r="129" spans="1:4" ht="132" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A129" s="1">
         <v>115</v>
       </c>
-      <c r="B129" s="23"/>
-      <c r="C129" s="6" t="s">
+      <c r="B129" s="17"/>
+      <c r="C129" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D129" s="4"/>
-    </row>
-    <row r="130" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130">
+      <c r="D129" s="7"/>
+    </row>
+    <row r="130" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A130" s="1">
         <v>116</v>
       </c>
-      <c r="B130" s="23"/>
-      <c r="C130" s="6" t="s">
+      <c r="B130" s="17"/>
+      <c r="C130" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D130" s="4"/>
-    </row>
-    <row r="131" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131">
+      <c r="D130" s="7"/>
+    </row>
+    <row r="131" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A131" s="1">
         <v>117</v>
       </c>
-      <c r="B131" s="23"/>
-      <c r="C131" s="6" t="s">
+      <c r="B131" s="17"/>
+      <c r="C131" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D131" s="4"/>
-    </row>
-    <row r="132" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132">
+      <c r="D131" s="7"/>
+    </row>
+    <row r="132" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A132" s="1">
         <v>118</v>
       </c>
-      <c r="B132" s="23"/>
-      <c r="C132" s="6" t="s">
+      <c r="B132" s="17"/>
+      <c r="C132" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D132" s="4"/>
-    </row>
-    <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133">
+      <c r="D132" s="7"/>
+    </row>
+    <row r="133" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A133" s="1">
         <v>119</v>
       </c>
-      <c r="B133" s="25"/>
-      <c r="C133" s="6" t="s">
+      <c r="B133" s="18"/>
+      <c r="C133" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D133" s="4"/>
-    </row>
-    <row r="134" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134">
+      <c r="D133" s="7"/>
+    </row>
+    <row r="134" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A134" s="1">
         <v>120</v>
       </c>
-      <c r="B134" s="24" t="s">
+      <c r="B134" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C134" s="6" t="s">
+      <c r="C134" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D134" s="4"/>
-    </row>
-    <row r="135" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135">
+      <c r="D134" s="7"/>
+    </row>
+    <row r="135" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A135" s="1">
         <v>121</v>
       </c>
-      <c r="B135" s="23"/>
-      <c r="C135" s="6" t="s">
+      <c r="B135" s="17"/>
+      <c r="C135" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D135" s="4"/>
-    </row>
-    <row r="136" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136">
+      <c r="D135" s="7"/>
+    </row>
+    <row r="136" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A136" s="1">
         <v>122</v>
       </c>
-      <c r="B136" s="23"/>
-      <c r="C136" s="6" t="s">
+      <c r="B136" s="17"/>
+      <c r="C136" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D136" s="4"/>
-    </row>
-    <row r="137" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137">
+      <c r="D136" s="7"/>
+    </row>
+    <row r="137" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A137" s="1">
         <v>123</v>
       </c>
-      <c r="B137" s="23"/>
-      <c r="C137" s="6" t="s">
+      <c r="B137" s="17"/>
+      <c r="C137" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D137" s="4"/>
-    </row>
-    <row r="138" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138">
+      <c r="D137" s="7"/>
+    </row>
+    <row r="138" spans="1:4" ht="132" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A138" s="1">
         <v>124</v>
       </c>
-      <c r="B138" s="23"/>
-      <c r="C138" s="6" t="s">
+      <c r="B138" s="17"/>
+      <c r="C138" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D138" s="4"/>
-    </row>
-    <row r="139" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139">
+      <c r="D138" s="7"/>
+    </row>
+    <row r="139" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A139" s="1">
         <v>125</v>
       </c>
-      <c r="B139" s="23"/>
-      <c r="C139" s="6" t="s">
+      <c r="B139" s="17"/>
+      <c r="C139" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D139" s="4"/>
-    </row>
-    <row r="140" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140">
+      <c r="D139" s="7"/>
+    </row>
+    <row r="140" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A140" s="1">
         <v>126</v>
       </c>
-      <c r="B140" s="23"/>
-      <c r="C140" s="6" t="s">
+      <c r="B140" s="17"/>
+      <c r="C140" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D140" s="4"/>
-    </row>
-    <row r="141" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141">
+      <c r="D140" s="7"/>
+    </row>
+    <row r="141" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A141" s="1">
         <v>127</v>
       </c>
-      <c r="B141" s="23"/>
-      <c r="C141" s="6" t="s">
+      <c r="B141" s="17"/>
+      <c r="C141" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D141" s="4"/>
-    </row>
-    <row r="142" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142">
+      <c r="D141" s="7"/>
+    </row>
+    <row r="142" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A142" s="1">
         <v>128</v>
       </c>
-      <c r="B142" s="25"/>
-      <c r="C142" s="6" t="s">
+      <c r="B142" s="18"/>
+      <c r="C142" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D142" s="4"/>
-    </row>
-    <row r="143" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143">
+      <c r="D142" s="7"/>
+    </row>
+    <row r="143" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A143" s="1">
         <v>129</v>
       </c>
-      <c r="B143" s="24" t="s">
+      <c r="B143" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C143" s="6" t="s">
+      <c r="C143" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D143" s="4"/>
-    </row>
-    <row r="144" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144">
+      <c r="D143" s="7"/>
+    </row>
+    <row r="144" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A144" s="1">
         <v>130</v>
       </c>
-      <c r="B144" s="23"/>
-      <c r="C144" s="6" t="s">
+      <c r="B144" s="17"/>
+      <c r="C144" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D144" s="4"/>
-    </row>
-    <row r="145" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145">
+      <c r="D144" s="7"/>
+    </row>
+    <row r="145" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A145" s="1">
         <v>131</v>
       </c>
-      <c r="B145" s="23"/>
-      <c r="C145" s="6" t="s">
+      <c r="B145" s="17"/>
+      <c r="C145" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D145" s="4"/>
-    </row>
-    <row r="146" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146">
+      <c r="D145" s="7"/>
+    </row>
+    <row r="146" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A146" s="1">
         <v>132</v>
       </c>
-      <c r="B146" s="23"/>
-      <c r="C146" s="6" t="s">
+      <c r="B146" s="17"/>
+      <c r="C146" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D146" s="4"/>
-    </row>
-    <row r="147" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147">
+      <c r="D146" s="7"/>
+    </row>
+    <row r="147" spans="1:4" ht="132" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A147" s="1">
         <v>133</v>
       </c>
-      <c r="B147" s="23"/>
-      <c r="C147" s="6" t="s">
+      <c r="B147" s="17"/>
+      <c r="C147" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D147" s="4"/>
-    </row>
-    <row r="148" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148">
+      <c r="D147" s="7"/>
+    </row>
+    <row r="148" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A148" s="1">
         <v>134</v>
       </c>
-      <c r="B148" s="23"/>
-      <c r="C148" s="6" t="s">
+      <c r="B148" s="17"/>
+      <c r="C148" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D148" s="4"/>
-    </row>
-    <row r="149" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149">
+      <c r="D148" s="7"/>
+    </row>
+    <row r="149" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A149" s="1">
         <v>135</v>
       </c>
-      <c r="B149" s="23"/>
-      <c r="C149" s="6" t="s">
+      <c r="B149" s="17"/>
+      <c r="C149" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D149" s="4"/>
-    </row>
-    <row r="150" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150">
+      <c r="D149" s="7"/>
+    </row>
+    <row r="150" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A150" s="1">
         <v>136</v>
       </c>
-      <c r="B150" s="23"/>
-      <c r="C150" s="6" t="s">
+      <c r="B150" s="17"/>
+      <c r="C150" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D150" s="4"/>
-    </row>
-    <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151">
+      <c r="D150" s="7"/>
+    </row>
+    <row r="151" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A151" s="1">
         <v>137</v>
       </c>
-      <c r="B151" s="25"/>
-      <c r="C151" s="6" t="s">
+      <c r="B151" s="18"/>
+      <c r="C151" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D151" s="4"/>
-    </row>
-    <row r="152" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152">
+      <c r="D151" s="7"/>
+    </row>
+    <row r="152" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A152" s="1">
         <v>138</v>
       </c>
-      <c r="B152" s="19"/>
-      <c r="C152" s="20"/>
-      <c r="D152" s="5"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="B152" s="11"/>
+      <c r="C152" s="12"/>
+      <c r="D152" s="13"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A153" s="1">
         <v>139</v>
       </c>
-      <c r="B153" s="27" t="s">
+      <c r="B153" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C153" s="29" t="s">
+      <c r="C153" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D153" s="31"/>
-    </row>
-    <row r="154" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154">
+      <c r="D153" s="21"/>
+    </row>
+    <row r="154" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A154" s="1">
         <v>140</v>
       </c>
-      <c r="B154" s="26"/>
-      <c r="C154" s="30"/>
-      <c r="D154" s="32"/>
-    </row>
-    <row r="155" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="B154" s="22"/>
+      <c r="C154" s="23"/>
+      <c r="D154" s="24"/>
+    </row>
+    <row r="155" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A155" s="1">
         <v>141</v>
       </c>
-      <c r="B155" s="26"/>
-      <c r="C155" s="29" t="s">
+      <c r="B155" s="22"/>
+      <c r="C155" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D155" s="31"/>
-    </row>
-    <row r="156" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156">
+      <c r="D155" s="21"/>
+    </row>
+    <row r="156" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A156" s="1">
         <v>142</v>
       </c>
-      <c r="B156" s="26"/>
-      <c r="C156" s="30"/>
-      <c r="D156" s="32"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="B156" s="22"/>
+      <c r="C156" s="23"/>
+      <c r="D156" s="24"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A157" s="1">
         <v>143</v>
       </c>
-      <c r="B157" s="26"/>
-      <c r="C157" s="29" t="s">
+      <c r="B157" s="22"/>
+      <c r="C157" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D157" s="31"/>
-    </row>
-    <row r="158" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158">
+      <c r="D157" s="21"/>
+    </row>
+    <row r="158" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A158" s="1">
         <v>144</v>
       </c>
-      <c r="B158" s="26"/>
-      <c r="C158" s="30"/>
-      <c r="D158" s="32"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="B158" s="22"/>
+      <c r="C158" s="23"/>
+      <c r="D158" s="24"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A159" s="1">
         <v>145</v>
       </c>
-      <c r="B159" s="26"/>
-      <c r="C159" s="29" t="s">
+      <c r="B159" s="22"/>
+      <c r="C159" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D159" s="31"/>
-    </row>
-    <row r="160" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A160">
+      <c r="D159" s="21"/>
+    </row>
+    <row r="160" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A160" s="1">
         <v>146</v>
       </c>
-      <c r="B160" s="26"/>
-      <c r="C160" s="30"/>
-      <c r="D160" s="32"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161">
+      <c r="B160" s="22"/>
+      <c r="C160" s="23"/>
+      <c r="D160" s="24"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A161" s="1">
         <v>147</v>
       </c>
-      <c r="B161" s="26"/>
-      <c r="C161" s="29" t="s">
+      <c r="B161" s="22"/>
+      <c r="C161" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D161" s="31"/>
-    </row>
-    <row r="162" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162">
+      <c r="D161" s="21"/>
+    </row>
+    <row r="162" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A162" s="1">
         <v>148</v>
       </c>
-      <c r="B162" s="26"/>
-      <c r="C162" s="30"/>
-      <c r="D162" s="32"/>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="B162" s="22"/>
+      <c r="C162" s="23"/>
+      <c r="D162" s="24"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A163" s="1">
         <v>149</v>
       </c>
-      <c r="B163" s="26"/>
-      <c r="C163" s="29" t="s">
+      <c r="B163" s="22"/>
+      <c r="C163" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D163" s="31"/>
-    </row>
-    <row r="164" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164">
+      <c r="D163" s="21"/>
+    </row>
+    <row r="164" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A164" s="1">
         <v>150</v>
       </c>
-      <c r="B164" s="28"/>
-      <c r="C164" s="30"/>
-      <c r="D164" s="32"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165">
+      <c r="B164" s="25"/>
+      <c r="C164" s="23"/>
+      <c r="D164" s="24"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A165" s="1">
         <v>151</v>
       </c>
-      <c r="B165" s="27" t="s">
+      <c r="B165" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C165" s="29" t="s">
+      <c r="C165" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D165" s="31"/>
-    </row>
-    <row r="166" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A166">
+      <c r="D165" s="21"/>
+    </row>
+    <row r="166" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A166" s="1">
         <v>152</v>
       </c>
-      <c r="B166" s="26"/>
-      <c r="C166" s="30"/>
-      <c r="D166" s="32"/>
-    </row>
-    <row r="167" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167">
+      <c r="B166" s="22"/>
+      <c r="C166" s="23"/>
+      <c r="D166" s="24"/>
+    </row>
+    <row r="167" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A167" s="1">
         <v>153</v>
       </c>
-      <c r="B167" s="26"/>
-      <c r="C167" s="29" t="s">
+      <c r="B167" s="22"/>
+      <c r="C167" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D167" s="31"/>
-    </row>
-    <row r="168" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A168">
+      <c r="D167" s="21"/>
+    </row>
+    <row r="168" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A168" s="1">
         <v>154</v>
       </c>
-      <c r="B168" s="26"/>
-      <c r="C168" s="30"/>
-      <c r="D168" s="32"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169">
+      <c r="B168" s="22"/>
+      <c r="C168" s="23"/>
+      <c r="D168" s="24"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A169" s="1">
         <v>155</v>
       </c>
-      <c r="B169" s="26"/>
-      <c r="C169" s="29" t="s">
+      <c r="B169" s="22"/>
+      <c r="C169" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D169" s="31"/>
-    </row>
-    <row r="170" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170">
+      <c r="D169" s="21"/>
+    </row>
+    <row r="170" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A170" s="1">
         <v>156</v>
       </c>
-      <c r="B170" s="26"/>
-      <c r="C170" s="30"/>
-      <c r="D170" s="32"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171">
+      <c r="B170" s="22"/>
+      <c r="C170" s="23"/>
+      <c r="D170" s="24"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A171" s="1">
         <v>157</v>
       </c>
-      <c r="B171" s="26"/>
-      <c r="C171" s="29" t="s">
+      <c r="B171" s="22"/>
+      <c r="C171" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D171" s="31"/>
-    </row>
-    <row r="172" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172">
+      <c r="D171" s="21"/>
+    </row>
+    <row r="172" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A172" s="1">
         <v>158</v>
       </c>
-      <c r="B172" s="26"/>
-      <c r="C172" s="30"/>
-      <c r="D172" s="32"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173">
+      <c r="B172" s="22"/>
+      <c r="C172" s="23"/>
+      <c r="D172" s="24"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A173" s="1">
         <v>159</v>
       </c>
-      <c r="B173" s="26"/>
-      <c r="C173" s="29" t="s">
+      <c r="B173" s="22"/>
+      <c r="C173" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D173" s="31"/>
-    </row>
-    <row r="174" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A174">
+      <c r="D173" s="21"/>
+    </row>
+    <row r="174" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A174" s="1">
         <v>160</v>
       </c>
-      <c r="B174" s="26"/>
-      <c r="C174" s="30"/>
-      <c r="D174" s="32"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175">
+      <c r="B174" s="22"/>
+      <c r="C174" s="23"/>
+      <c r="D174" s="24"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A175" s="1">
         <v>161</v>
       </c>
-      <c r="B175" s="26"/>
-      <c r="C175" s="29" t="s">
+      <c r="B175" s="22"/>
+      <c r="C175" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D175" s="31"/>
-    </row>
-    <row r="176" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A176">
+      <c r="D175" s="21"/>
+    </row>
+    <row r="176" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A176" s="1">
         <v>162</v>
       </c>
-      <c r="B176" s="28"/>
-      <c r="C176" s="30"/>
-      <c r="D176" s="32"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177">
+      <c r="B176" s="25"/>
+      <c r="C176" s="23"/>
+      <c r="D176" s="24"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A177" s="1">
         <v>163</v>
       </c>
-      <c r="B177" s="27" t="s">
+      <c r="B177" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C177" s="29" t="s">
+      <c r="C177" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D177" s="31"/>
-    </row>
-    <row r="178" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A178">
+      <c r="D177" s="21"/>
+    </row>
+    <row r="178" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A178" s="1">
         <v>164</v>
       </c>
-      <c r="B178" s="26"/>
-      <c r="C178" s="30"/>
-      <c r="D178" s="32"/>
-    </row>
-    <row r="179" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179">
+      <c r="B178" s="22"/>
+      <c r="C178" s="23"/>
+      <c r="D178" s="24"/>
+    </row>
+    <row r="179" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A179" s="1">
         <v>165</v>
       </c>
-      <c r="B179" s="26"/>
-      <c r="C179" s="29" t="s">
+      <c r="B179" s="22"/>
+      <c r="C179" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D179" s="31"/>
-    </row>
-    <row r="180" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A180">
+      <c r="D179" s="21"/>
+    </row>
+    <row r="180" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A180" s="1">
         <v>166</v>
       </c>
-      <c r="B180" s="26"/>
-      <c r="C180" s="30"/>
-      <c r="D180" s="32"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181">
+      <c r="B180" s="22"/>
+      <c r="C180" s="23"/>
+      <c r="D180" s="24"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A181" s="1">
         <v>167</v>
       </c>
-      <c r="B181" s="26"/>
-      <c r="C181" s="29" t="s">
+      <c r="B181" s="22"/>
+      <c r="C181" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D181" s="31"/>
-    </row>
-    <row r="182" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182">
+      <c r="D181" s="21"/>
+    </row>
+    <row r="182" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A182" s="1">
         <v>168</v>
       </c>
-      <c r="B182" s="26"/>
-      <c r="C182" s="30"/>
-      <c r="D182" s="32"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183">
+      <c r="B182" s="22"/>
+      <c r="C182" s="23"/>
+      <c r="D182" s="24"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A183" s="1">
         <v>169</v>
       </c>
-      <c r="B183" s="26"/>
-      <c r="C183" s="29" t="s">
+      <c r="B183" s="22"/>
+      <c r="C183" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="D183" s="31"/>
-    </row>
-    <row r="184" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184">
+      <c r="D183" s="21"/>
+    </row>
+    <row r="184" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A184" s="1">
         <v>170</v>
       </c>
-      <c r="B184" s="26"/>
-      <c r="C184" s="30"/>
-      <c r="D184" s="32"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185">
+      <c r="B184" s="22"/>
+      <c r="C184" s="23"/>
+      <c r="D184" s="24"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A185" s="1">
         <v>171</v>
       </c>
-      <c r="B185" s="26"/>
-      <c r="C185" s="29" t="s">
+      <c r="B185" s="22"/>
+      <c r="C185" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D185" s="31"/>
-    </row>
-    <row r="186" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A186">
+      <c r="D185" s="21"/>
+    </row>
+    <row r="186" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A186" s="1">
         <v>172</v>
       </c>
-      <c r="B186" s="26"/>
-      <c r="C186" s="30"/>
-      <c r="D186" s="32"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187">
+      <c r="B186" s="22"/>
+      <c r="C186" s="23"/>
+      <c r="D186" s="24"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A187" s="1">
         <v>173</v>
       </c>
-      <c r="B187" s="26"/>
-      <c r="C187" s="29" t="s">
+      <c r="B187" s="22"/>
+      <c r="C187" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="D187" s="31"/>
-    </row>
-    <row r="188" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A188">
+      <c r="D187" s="21"/>
+    </row>
+    <row r="188" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A188" s="1">
         <v>174</v>
       </c>
-      <c r="B188" s="28"/>
-      <c r="C188" s="30"/>
-      <c r="D188" s="32"/>
-    </row>
-    <row r="189" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189">
+      <c r="B188" s="25"/>
+      <c r="C188" s="23"/>
+      <c r="D188" s="24"/>
+    </row>
+    <row r="189" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A189" s="1">
         <v>175</v>
       </c>
-      <c r="B189" s="10"/>
-      <c r="C189" s="11"/>
-      <c r="D189" s="5"/>
-    </row>
-    <row r="190" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A190">
+      <c r="B189" s="26"/>
+      <c r="C189" s="27"/>
+      <c r="D189" s="13"/>
+    </row>
+    <row r="190" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A190" s="1">
         <v>176</v>
       </c>
-      <c r="B190" s="12" t="s">
+      <c r="B190" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C190" s="6" t="s">
+      <c r="C190" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D190" s="4"/>
-    </row>
-    <row r="191" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191">
+      <c r="D190" s="7"/>
+    </row>
+    <row r="191" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A191" s="1">
         <v>177</v>
       </c>
-      <c r="B191" s="12"/>
-      <c r="C191" s="6" t="s">
+      <c r="B191" s="28"/>
+      <c r="C191" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D191" s="4"/>
-    </row>
-    <row r="192" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192">
+      <c r="D191" s="7"/>
+    </row>
+    <row r="192" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A192" s="1">
         <v>178</v>
       </c>
-      <c r="B192" s="12"/>
-      <c r="C192" s="6" t="s">
+      <c r="B192" s="28"/>
+      <c r="C192" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D192" s="4"/>
-    </row>
-    <row r="193" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A193">
+      <c r="D192" s="7"/>
+    </row>
+    <row r="193" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A193" s="1">
         <v>179</v>
       </c>
-      <c r="B193" s="12"/>
-      <c r="C193" s="6" t="s">
+      <c r="B193" s="28"/>
+      <c r="C193" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D193" s="4"/>
-    </row>
-    <row r="194" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194">
+      <c r="D193" s="7"/>
+    </row>
+    <row r="194" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A194" s="1">
         <v>180</v>
       </c>
-      <c r="B194" s="12"/>
-      <c r="C194" s="6" t="s">
+      <c r="B194" s="28"/>
+      <c r="C194" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D194" s="4"/>
-    </row>
-    <row r="195" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A195">
+      <c r="D194" s="7"/>
+    </row>
+    <row r="195" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A195" s="1">
         <v>181</v>
       </c>
-      <c r="B195" s="12"/>
-      <c r="C195" s="6" t="s">
+      <c r="B195" s="28"/>
+      <c r="C195" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D195" s="4"/>
-    </row>
-    <row r="196" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196">
+      <c r="D195" s="7"/>
+    </row>
+    <row r="196" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A196" s="1">
         <v>182</v>
       </c>
-      <c r="B196" s="12"/>
-      <c r="C196" s="6" t="s">
+      <c r="B196" s="28"/>
+      <c r="C196" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D196" s="4"/>
-    </row>
-    <row r="197" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197">
+      <c r="D196" s="7"/>
+    </row>
+    <row r="197" spans="1:4" ht="132" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A197" s="1">
         <v>183</v>
       </c>
-      <c r="B197" s="12" t="s">
+      <c r="B197" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="C197" s="6" t="s">
+      <c r="C197" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D197" s="4"/>
-    </row>
-    <row r="198" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A198">
+      <c r="D197" s="7"/>
+    </row>
+    <row r="198" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A198" s="1">
         <v>184</v>
       </c>
-      <c r="B198" s="12"/>
-      <c r="C198" s="6" t="s">
+      <c r="B198" s="28"/>
+      <c r="C198" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D198" s="4"/>
-    </row>
-    <row r="199" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199">
+      <c r="D198" s="7"/>
+    </row>
+    <row r="199" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A199" s="1">
         <v>185</v>
       </c>
-      <c r="B199" s="12"/>
-      <c r="C199" s="6" t="s">
+      <c r="B199" s="28"/>
+      <c r="C199" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D199" s="4"/>
-    </row>
-    <row r="200" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A200">
+      <c r="D199" s="7"/>
+    </row>
+    <row r="200" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A200" s="1">
         <v>186</v>
       </c>
-      <c r="B200" s="12"/>
-      <c r="C200" s="6" t="s">
+      <c r="B200" s="28"/>
+      <c r="C200" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D200" s="4"/>
-    </row>
-    <row r="201" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A201">
+      <c r="D200" s="7"/>
+    </row>
+    <row r="201" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A201" s="1">
         <v>187</v>
       </c>
-      <c r="B201" s="12"/>
-      <c r="C201" s="6" t="s">
+      <c r="B201" s="28"/>
+      <c r="C201" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D201" s="4"/>
-    </row>
-    <row r="202" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A202">
+      <c r="D201" s="7"/>
+    </row>
+    <row r="202" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A202" s="1">
         <v>188</v>
       </c>
-      <c r="B202" s="12"/>
-      <c r="C202" s="6" t="s">
+      <c r="B202" s="28"/>
+      <c r="C202" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D202" s="4"/>
-    </row>
-    <row r="203" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A203">
+      <c r="D202" s="7"/>
+    </row>
+    <row r="203" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A203" s="1">
         <v>189</v>
       </c>
-      <c r="B203" s="12"/>
-      <c r="C203" s="6" t="s">
+      <c r="B203" s="28"/>
+      <c r="C203" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D203" s="4"/>
-    </row>
-    <row r="204" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A204">
+      <c r="D203" s="7"/>
+    </row>
+    <row r="204" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A204" s="1">
         <v>183</v>
       </c>
-      <c r="B204" s="12" t="s">
+      <c r="B204" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C204" s="6" t="s">
+      <c r="C204" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D204" s="4"/>
-    </row>
-    <row r="205" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A205">
+      <c r="D204" s="7"/>
+    </row>
+    <row r="205" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A205" s="1">
         <v>184</v>
       </c>
-      <c r="B205" s="12"/>
-      <c r="C205" s="6" t="s">
+      <c r="B205" s="28"/>
+      <c r="C205" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D205" s="4"/>
-    </row>
-    <row r="206" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A206">
+      <c r="D205" s="7"/>
+    </row>
+    <row r="206" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A206" s="1">
         <v>185</v>
       </c>
-      <c r="B206" s="12"/>
-      <c r="C206" s="6" t="s">
+      <c r="B206" s="28"/>
+      <c r="C206" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D206" s="4"/>
-    </row>
-    <row r="207" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207">
+      <c r="D206" s="7"/>
+    </row>
+    <row r="207" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A207" s="1">
         <v>186</v>
       </c>
-      <c r="B207" s="12"/>
-      <c r="C207" s="6" t="s">
+      <c r="B207" s="28"/>
+      <c r="C207" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D207" s="4"/>
-    </row>
-    <row r="208" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A208">
+      <c r="D207" s="7"/>
+    </row>
+    <row r="208" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A208" s="1">
         <v>187</v>
       </c>
-      <c r="B208" s="12"/>
-      <c r="C208" s="6" t="s">
+      <c r="B208" s="28"/>
+      <c r="C208" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D208" s="4"/>
-    </row>
-    <row r="209" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A209">
+      <c r="D208" s="7"/>
+    </row>
+    <row r="209" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A209" s="1">
         <v>188</v>
       </c>
-      <c r="B209" s="12"/>
-      <c r="C209" s="6" t="s">
+      <c r="B209" s="28"/>
+      <c r="C209" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D209" s="4"/>
-    </row>
-    <row r="210" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A210">
+      <c r="D209" s="7"/>
+    </row>
+    <row r="210" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A210" s="1">
         <v>189</v>
       </c>
-      <c r="B210" s="12"/>
-      <c r="C210" s="6" t="s">
+      <c r="B210" s="28"/>
+      <c r="C210" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D210" s="4"/>
-    </row>
-    <row r="211" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211">
+      <c r="D210" s="7"/>
+    </row>
+    <row r="211" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A211" s="1">
         <v>183</v>
       </c>
-      <c r="B211" s="12" t="s">
+      <c r="B211" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="C211" s="6" t="s">
+      <c r="C211" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D211" s="4"/>
-    </row>
-    <row r="212" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A212">
+      <c r="D211" s="7"/>
+    </row>
+    <row r="212" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A212" s="1">
         <v>184</v>
       </c>
-      <c r="B212" s="12"/>
-      <c r="C212" s="6" t="s">
+      <c r="B212" s="28"/>
+      <c r="C212" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D212" s="4"/>
-    </row>
-    <row r="213" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A213">
+      <c r="D212" s="7"/>
+    </row>
+    <row r="213" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A213" s="1">
         <v>185</v>
       </c>
-      <c r="B213" s="12"/>
-      <c r="C213" s="6" t="s">
+      <c r="B213" s="28"/>
+      <c r="C213" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D213" s="4"/>
-    </row>
-    <row r="214" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A214">
+      <c r="D213" s="7"/>
+    </row>
+    <row r="214" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A214" s="1">
         <v>186</v>
       </c>
-      <c r="B214" s="12"/>
-      <c r="C214" s="6" t="s">
+      <c r="B214" s="28"/>
+      <c r="C214" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D214" s="4"/>
-    </row>
-    <row r="215" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A215">
+      <c r="D214" s="7"/>
+    </row>
+    <row r="215" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A215" s="1">
         <v>187</v>
       </c>
-      <c r="B215" s="12"/>
-      <c r="C215" s="6" t="s">
+      <c r="B215" s="28"/>
+      <c r="C215" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D215" s="4"/>
-    </row>
-    <row r="216" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A216">
+      <c r="D215" s="7"/>
+    </row>
+    <row r="216" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A216" s="1">
         <v>188</v>
       </c>
-      <c r="B216" s="12"/>
-      <c r="C216" s="6" t="s">
+      <c r="B216" s="28"/>
+      <c r="C216" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D216" s="4"/>
-    </row>
-    <row r="217" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A217">
+      <c r="D216" s="7"/>
+    </row>
+    <row r="217" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A217" s="1">
         <v>189</v>
       </c>
-      <c r="B217" s="12"/>
-      <c r="C217" s="6" t="s">
+      <c r="B217" s="28"/>
+      <c r="C217" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D217" s="4"/>
-    </row>
-    <row r="218" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A218">
+      <c r="D217" s="7"/>
+    </row>
+    <row r="218" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A218" s="1">
         <v>190</v>
       </c>
-      <c r="B218" s="19"/>
-      <c r="C218" s="20"/>
-      <c r="D218" s="5"/>
-    </row>
-    <row r="219" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A219">
+      <c r="B218" s="11"/>
+      <c r="C218" s="12"/>
+      <c r="D218" s="13"/>
+    </row>
+    <row r="219" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A219" s="1">
         <v>191</v>
       </c>
-      <c r="B219" s="13"/>
-      <c r="C219" s="34" t="s">
+      <c r="B219" s="29"/>
+      <c r="C219" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D219" s="4"/>
-    </row>
-    <row r="220" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A220">
+      <c r="D219" s="7"/>
+    </row>
+    <row r="220" spans="1:4" ht="105" x14ac:dyDescent="0.4">
+      <c r="A220" s="1">
         <v>192</v>
       </c>
-      <c r="B220" s="8" t="s">
+      <c r="B220" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="C220" s="13" t="s">
+      <c r="C220" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="D220" s="31"/>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221">
+      <c r="D220" s="21"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A221" s="1">
         <v>193</v>
       </c>
-      <c r="B221" s="14"/>
-      <c r="C221" s="13" t="s">
+      <c r="B221" s="32"/>
+      <c r="C221" s="29" t="s">
         <v>143</v>
       </c>
       <c r="D221" s="33"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A222" s="1">
         <v>194</v>
       </c>
-      <c r="B222" s="14"/>
-      <c r="C222" s="13" t="s">
+      <c r="B222" s="32"/>
+      <c r="C222" s="29" t="s">
         <v>95</v>
       </c>
       <c r="D222" s="33"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223">
+    <row r="223" spans="1:4" ht="52.5" x14ac:dyDescent="0.4">
+      <c r="A223" s="1">
         <v>195</v>
       </c>
-      <c r="B223" s="14"/>
-      <c r="C223" s="13" t="s">
+      <c r="B223" s="32"/>
+      <c r="C223" s="29" t="s">
         <v>96</v>
       </c>
       <c r="D223" s="33"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224">
+    <row r="224" spans="1:4" ht="52.5" x14ac:dyDescent="0.4">
+      <c r="A224" s="1">
         <v>196</v>
       </c>
-      <c r="B224" s="14"/>
-      <c r="C224" s="13" t="s">
+      <c r="B224" s="32"/>
+      <c r="C224" s="29" t="s">
         <v>97</v>
       </c>
       <c r="D224" s="33"/>
     </row>
-    <row r="225" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A225">
+    <row r="225" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A225" s="1">
         <v>197</v>
       </c>
-      <c r="B225" s="14"/>
-      <c r="C225" s="35" t="s">
+      <c r="B225" s="32"/>
+      <c r="C225" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="D225" s="32"/>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226">
+      <c r="D225" s="24"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A226" s="1">
         <v>198</v>
       </c>
-      <c r="B226" s="14"/>
-      <c r="C226" s="13" t="s">
+      <c r="B226" s="32"/>
+      <c r="C226" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D226" s="31"/>
-    </row>
-    <row r="227" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A227">
+      <c r="D226" s="21"/>
+    </row>
+    <row r="227" spans="1:4" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="A227" s="1">
         <v>199</v>
       </c>
-      <c r="B227" s="14"/>
-      <c r="C227" s="13" t="s">
+      <c r="B227" s="32"/>
+      <c r="C227" s="29" t="s">
         <v>99</v>
       </c>
       <c r="D227" s="33"/>
     </row>
-    <row r="228" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A228">
+    <row r="228" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A228" s="1">
         <v>200</v>
       </c>
-      <c r="B228" s="14"/>
-      <c r="C228" s="35" t="s">
+      <c r="B228" s="32"/>
+      <c r="C228" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D228" s="32"/>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229">
+      <c r="D228" s="24"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A229" s="1">
         <v>201</v>
       </c>
-      <c r="B229" s="14"/>
-      <c r="C229" s="13" t="s">
+      <c r="B229" s="32"/>
+      <c r="C229" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D229" s="31"/>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230">
+      <c r="D229" s="21"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A230" s="1">
         <v>202</v>
       </c>
-      <c r="B230" s="14"/>
-      <c r="C230" s="13" t="s">
+      <c r="B230" s="32"/>
+      <c r="C230" s="29" t="s">
         <v>101</v>
       </c>
       <c r="D230" s="33"/>
     </row>
-    <row r="231" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A231">
+    <row r="231" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A231" s="1">
         <v>203</v>
       </c>
-      <c r="B231" s="14"/>
-      <c r="C231" s="35" t="s">
+      <c r="B231" s="32"/>
+      <c r="C231" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="D231" s="32"/>
-    </row>
-    <row r="232" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232">
+      <c r="D231" s="24"/>
+    </row>
+    <row r="232" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A232" s="1">
         <v>204</v>
       </c>
-      <c r="B232" s="14"/>
-      <c r="C232" s="35" t="s">
+      <c r="B232" s="32"/>
+      <c r="C232" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="D232" s="4"/>
-    </row>
-    <row r="233" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A233">
+      <c r="D232" s="7"/>
+    </row>
+    <row r="233" spans="1:4" ht="132" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A233" s="1">
         <v>205</v>
       </c>
-      <c r="B233" s="14"/>
-      <c r="C233" s="35" t="s">
+      <c r="B233" s="32"/>
+      <c r="C233" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D233" s="4"/>
-    </row>
-    <row r="234" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234">
+      <c r="D233" s="7"/>
+    </row>
+    <row r="234" spans="1:4" ht="158.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A234" s="1">
         <v>206</v>
       </c>
-      <c r="B234" s="14"/>
-      <c r="C234" s="35" t="s">
+      <c r="B234" s="32"/>
+      <c r="C234" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D234" s="4"/>
-    </row>
-    <row r="235" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A235">
+      <c r="D234" s="7"/>
+    </row>
+    <row r="235" spans="1:4" ht="237" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A235" s="1">
         <v>207</v>
       </c>
-      <c r="B235" s="14"/>
-      <c r="C235" s="35" t="s">
+      <c r="B235" s="32"/>
+      <c r="C235" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D235" s="4"/>
-    </row>
-    <row r="236" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A236">
+      <c r="D235" s="7"/>
+    </row>
+    <row r="236" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A236" s="1">
         <v>208</v>
       </c>
-      <c r="B236" s="14"/>
-      <c r="C236" s="35" t="s">
+      <c r="B236" s="32"/>
+      <c r="C236" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D236" s="4"/>
-    </row>
-    <row r="237" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A237">
+      <c r="D236" s="7"/>
+    </row>
+    <row r="237" spans="1:4" ht="132" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A237" s="1">
         <v>209</v>
       </c>
-      <c r="B237" s="14"/>
-      <c r="C237" s="35" t="s">
+      <c r="B237" s="32"/>
+      <c r="C237" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D237" s="4"/>
-    </row>
-    <row r="238" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A238">
+      <c r="D237" s="7"/>
+    </row>
+    <row r="238" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A238" s="1">
         <v>210</v>
       </c>
-      <c r="B238" s="14"/>
-      <c r="C238" s="13" t="s">
+      <c r="B238" s="32"/>
+      <c r="C238" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="D238" s="9"/>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A239">
+      <c r="D238" s="35"/>
+    </row>
+    <row r="239" spans="1:4" ht="52.5" x14ac:dyDescent="0.4">
+      <c r="A239" s="1">
         <v>211</v>
       </c>
-      <c r="B239" s="14"/>
-      <c r="C239" s="13" t="s">
+      <c r="B239" s="32"/>
+      <c r="C239" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D239" s="31"/>
-    </row>
-    <row r="240" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A240">
+      <c r="D239" s="21"/>
+    </row>
+    <row r="240" spans="1:4" ht="105" x14ac:dyDescent="0.4">
+      <c r="A240" s="1">
         <v>212</v>
       </c>
-      <c r="B240" s="14"/>
-      <c r="C240" s="13" t="s">
+      <c r="B240" s="32"/>
+      <c r="C240" s="29" t="s">
         <v>103</v>
       </c>
       <c r="D240" s="33"/>
     </row>
-    <row r="241" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A241">
+    <row r="241" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A241" s="1">
         <v>213</v>
       </c>
-      <c r="B241" s="14"/>
-      <c r="C241" s="35" t="s">
+      <c r="B241" s="32"/>
+      <c r="C241" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="D241" s="32"/>
-    </row>
-    <row r="242" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A242">
+      <c r="D241" s="24"/>
+    </row>
+    <row r="242" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A242" s="1">
         <v>214</v>
       </c>
-      <c r="B242" s="14"/>
-      <c r="C242" s="35" t="s">
+      <c r="B242" s="32"/>
+      <c r="C242" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="D242" s="4"/>
-    </row>
-    <row r="243" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A243">
+      <c r="D242" s="7"/>
+    </row>
+    <row r="243" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A243" s="1">
         <v>215</v>
       </c>
-      <c r="B243" s="14"/>
-      <c r="C243" s="35" t="s">
+      <c r="B243" s="32"/>
+      <c r="C243" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="D243" s="4"/>
-    </row>
-    <row r="244" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A244">
+      <c r="D243" s="7"/>
+    </row>
+    <row r="244" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A244" s="1">
         <v>216</v>
       </c>
-      <c r="B244" s="14"/>
-      <c r="C244" s="35" t="s">
+      <c r="B244" s="32"/>
+      <c r="C244" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D244" s="4"/>
-    </row>
-    <row r="245" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A245">
+      <c r="D244" s="7"/>
+    </row>
+    <row r="245" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A245" s="1">
         <v>217</v>
       </c>
-      <c r="B245" s="14"/>
-      <c r="C245" s="35" t="s">
+      <c r="B245" s="32"/>
+      <c r="C245" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D245" s="4"/>
-    </row>
-    <row r="246" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A246">
+      <c r="D245" s="7"/>
+    </row>
+    <row r="246" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A246" s="1">
         <v>218</v>
       </c>
-      <c r="B246" s="14"/>
-      <c r="C246" s="35" t="s">
+      <c r="B246" s="32"/>
+      <c r="C246" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="D246" s="4"/>
-    </row>
-    <row r="247" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A247">
+      <c r="D246" s="7"/>
+    </row>
+    <row r="247" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A247" s="1">
         <v>219</v>
       </c>
-      <c r="B247" s="14"/>
-      <c r="C247" s="35" t="s">
+      <c r="B247" s="32"/>
+      <c r="C247" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="D247" s="4"/>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A248">
+      <c r="D247" s="7"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A248" s="1">
         <v>220</v>
       </c>
-      <c r="B248" s="14"/>
-      <c r="C248" s="13" t="s">
+      <c r="B248" s="32"/>
+      <c r="C248" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D248" s="31"/>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A249">
+      <c r="D248" s="21"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A249" s="1">
         <v>221</v>
       </c>
-      <c r="B249" s="14"/>
-      <c r="C249" s="13" t="s">
+      <c r="B249" s="32"/>
+      <c r="C249" s="29" t="s">
         <v>105</v>
       </c>
       <c r="D249" s="33"/>
     </row>
-    <row r="250" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A250">
+    <row r="250" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A250" s="1">
         <v>222</v>
       </c>
-      <c r="B250" s="14"/>
-      <c r="C250" s="35" t="s">
+      <c r="B250" s="32"/>
+      <c r="C250" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="D250" s="32"/>
-    </row>
-    <row r="251" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A251">
+      <c r="D250" s="24"/>
+    </row>
+    <row r="251" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A251" s="1">
         <v>223</v>
       </c>
-      <c r="B251" s="14"/>
-      <c r="C251" s="35" t="s">
+      <c r="B251" s="32"/>
+      <c r="C251" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D251" s="4"/>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252">
+      <c r="D251" s="7"/>
+    </row>
+    <row r="252" spans="1:4" ht="52.5" x14ac:dyDescent="0.4">
+      <c r="A252" s="1">
         <v>224</v>
       </c>
-      <c r="B252" s="14"/>
-      <c r="C252" s="13" t="s">
+      <c r="B252" s="32"/>
+      <c r="C252" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D252" s="31"/>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253">
+      <c r="D252" s="21"/>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A253" s="1">
         <v>225</v>
       </c>
-      <c r="B253" s="14"/>
-      <c r="C253" s="13" t="s">
+      <c r="B253" s="32"/>
+      <c r="C253" s="29" t="s">
         <v>107</v>
       </c>
       <c r="D253" s="33"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A254" s="1">
         <v>226</v>
       </c>
-      <c r="B254" s="14"/>
-      <c r="C254" s="13" t="s">
+      <c r="B254" s="32"/>
+      <c r="C254" s="29" t="s">
         <v>108</v>
       </c>
       <c r="D254" s="33"/>
     </row>
-    <row r="255" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A255">
+    <row r="255" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A255" s="1">
         <v>227</v>
       </c>
-      <c r="B255" s="14"/>
-      <c r="C255" s="35" t="s">
+      <c r="B255" s="32"/>
+      <c r="C255" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="D255" s="32"/>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A256">
+      <c r="D255" s="24"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A256" s="1">
         <v>228</v>
       </c>
-      <c r="B256" s="14"/>
-      <c r="C256" s="13" t="s">
+      <c r="B256" s="32"/>
+      <c r="C256" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="D256" s="31"/>
-    </row>
-    <row r="257" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A257">
+      <c r="D256" s="21"/>
+    </row>
+    <row r="257" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A257" s="1">
         <v>229</v>
       </c>
-      <c r="B257" s="14"/>
-      <c r="C257" s="35" t="s">
+      <c r="B257" s="32"/>
+      <c r="C257" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="D257" s="32"/>
-    </row>
-    <row r="258" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A258">
+      <c r="D257" s="24"/>
+    </row>
+    <row r="258" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A258" s="1">
         <v>230</v>
       </c>
-      <c r="B258" s="15"/>
-      <c r="C258" s="3"/>
-      <c r="D258" s="4"/>
-    </row>
-    <row r="259" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A259">
+      <c r="B258" s="36"/>
+      <c r="C258" s="6"/>
+      <c r="D258" s="7"/>
+    </row>
+    <row r="259" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A259" s="1">
         <v>231</v>
       </c>
-      <c r="B259" s="13"/>
-      <c r="C259" s="34" t="s">
+      <c r="B259" s="29"/>
+      <c r="C259" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D259" s="4"/>
-    </row>
-    <row r="260" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A260">
+      <c r="D259" s="7"/>
+    </row>
+    <row r="260" spans="1:4" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="A260" s="1">
         <v>232</v>
       </c>
-      <c r="B260" s="8" t="s">
+      <c r="B260" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="C260" s="13" t="s">
+      <c r="C260" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="D260" s="31"/>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A261">
+      <c r="D260" s="21"/>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A261" s="1">
         <v>233</v>
       </c>
-      <c r="B261" s="14"/>
-      <c r="C261" s="13" t="s">
+      <c r="B261" s="32"/>
+      <c r="C261" s="29" t="s">
         <v>94</v>
       </c>
       <c r="D261" s="33"/>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A262" s="1">
         <v>234</v>
       </c>
-      <c r="B262" s="14"/>
-      <c r="C262" s="13" t="s">
+      <c r="B262" s="32"/>
+      <c r="C262" s="29" t="s">
         <v>95</v>
       </c>
       <c r="D262" s="33"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263">
+    <row r="263" spans="1:4" ht="52.5" x14ac:dyDescent="0.4">
+      <c r="A263" s="1">
         <v>235</v>
       </c>
-      <c r="B263" s="14"/>
-      <c r="C263" s="13" t="s">
+      <c r="B263" s="32"/>
+      <c r="C263" s="29" t="s">
         <v>96</v>
       </c>
       <c r="D263" s="33"/>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A264">
+    <row r="264" spans="1:4" ht="52.5" x14ac:dyDescent="0.4">
+      <c r="A264" s="1">
         <v>236</v>
       </c>
-      <c r="B264" s="14"/>
-      <c r="C264" s="13" t="s">
+      <c r="B264" s="32"/>
+      <c r="C264" s="29" t="s">
         <v>97</v>
       </c>
       <c r="D264" s="33"/>
     </row>
-    <row r="265" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A265">
+    <row r="265" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A265" s="1">
         <v>237</v>
       </c>
-      <c r="B265" s="14"/>
-      <c r="C265" s="35" t="s">
+      <c r="B265" s="32"/>
+      <c r="C265" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="D265" s="32"/>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A266">
+      <c r="D265" s="24"/>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A266" s="1">
         <v>238</v>
       </c>
-      <c r="B266" s="14"/>
-      <c r="C266" s="13" t="s">
+      <c r="B266" s="32"/>
+      <c r="C266" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D266" s="31"/>
-    </row>
-    <row r="267" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A267">
+      <c r="D266" s="21"/>
+    </row>
+    <row r="267" spans="1:4" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="A267" s="1">
         <v>239</v>
       </c>
-      <c r="B267" s="14"/>
-      <c r="C267" s="13" t="s">
+      <c r="B267" s="32"/>
+      <c r="C267" s="29" t="s">
         <v>99</v>
       </c>
       <c r="D267" s="33"/>
     </row>
-    <row r="268" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A268">
+    <row r="268" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A268" s="1">
         <v>240</v>
       </c>
-      <c r="B268" s="14"/>
-      <c r="C268" s="35" t="s">
+      <c r="B268" s="32"/>
+      <c r="C268" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D268" s="32"/>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269">
+      <c r="D268" s="24"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A269" s="1">
         <v>241</v>
       </c>
-      <c r="B269" s="14"/>
-      <c r="C269" s="13" t="s">
+      <c r="B269" s="32"/>
+      <c r="C269" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D269" s="31"/>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270">
+      <c r="D269" s="21"/>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A270" s="1">
         <v>242</v>
       </c>
-      <c r="B270" s="14"/>
-      <c r="C270" s="13" t="s">
+      <c r="B270" s="32"/>
+      <c r="C270" s="29" t="s">
         <v>101</v>
       </c>
       <c r="D270" s="33"/>
     </row>
-    <row r="271" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A271">
+    <row r="271" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A271" s="1">
         <v>243</v>
       </c>
-      <c r="B271" s="14"/>
-      <c r="C271" s="35" t="s">
+      <c r="B271" s="32"/>
+      <c r="C271" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="D271" s="32"/>
-    </row>
-    <row r="272" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A272">
+      <c r="D271" s="24"/>
+    </row>
+    <row r="272" spans="1:4" ht="132" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A272" s="1">
         <v>244</v>
       </c>
-      <c r="B272" s="14"/>
-      <c r="C272" s="35" t="s">
+      <c r="B272" s="32"/>
+      <c r="C272" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D272" s="4"/>
-    </row>
-    <row r="273" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A273">
+      <c r="D272" s="7"/>
+    </row>
+    <row r="273" spans="1:4" ht="158.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A273" s="1">
         <v>245</v>
       </c>
-      <c r="B273" s="14"/>
-      <c r="C273" s="35" t="s">
+      <c r="B273" s="32"/>
+      <c r="C273" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D273" s="4"/>
-    </row>
-    <row r="274" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A274">
+      <c r="D273" s="7"/>
+    </row>
+    <row r="274" spans="1:4" ht="237" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A274" s="1">
         <v>246</v>
       </c>
-      <c r="B274" s="14"/>
-      <c r="C274" s="35" t="s">
+      <c r="B274" s="32"/>
+      <c r="C274" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D274" s="4"/>
-    </row>
-    <row r="275" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A275">
+      <c r="D274" s="7"/>
+    </row>
+    <row r="275" spans="1:4" ht="132" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A275" s="1">
         <v>247</v>
       </c>
-      <c r="B275" s="14"/>
-      <c r="C275" s="35" t="s">
+      <c r="B275" s="32"/>
+      <c r="C275" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D275" s="4"/>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276">
+      <c r="D275" s="7"/>
+    </row>
+    <row r="276" spans="1:4" ht="52.5" x14ac:dyDescent="0.4">
+      <c r="A276" s="1">
         <v>248</v>
       </c>
-      <c r="B276" s="14"/>
-      <c r="C276" s="13" t="s">
+      <c r="B276" s="32"/>
+      <c r="C276" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D276" s="31"/>
-    </row>
-    <row r="277" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A277">
+      <c r="D276" s="21"/>
+    </row>
+    <row r="277" spans="1:4" ht="105" x14ac:dyDescent="0.4">
+      <c r="A277" s="1">
         <v>249</v>
       </c>
-      <c r="B277" s="14"/>
-      <c r="C277" s="13" t="s">
+      <c r="B277" s="32"/>
+      <c r="C277" s="29" t="s">
         <v>103</v>
       </c>
       <c r="D277" s="33"/>
     </row>
-    <row r="278" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A278">
+    <row r="278" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A278" s="1">
         <v>250</v>
       </c>
-      <c r="B278" s="14"/>
-      <c r="C278" s="35" t="s">
+      <c r="B278" s="32"/>
+      <c r="C278" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="D278" s="32"/>
-    </row>
-    <row r="279" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A279">
+      <c r="D278" s="24"/>
+    </row>
+    <row r="279" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A279" s="1">
         <v>251</v>
       </c>
-      <c r="B279" s="14"/>
-      <c r="C279" s="35" t="s">
+      <c r="B279" s="32"/>
+      <c r="C279" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="D279" s="4"/>
-    </row>
-    <row r="280" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A280">
+      <c r="D279" s="7"/>
+    </row>
+    <row r="280" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A280" s="1">
         <v>252</v>
       </c>
-      <c r="B280" s="14"/>
-      <c r="C280" s="35" t="s">
+      <c r="B280" s="32"/>
+      <c r="C280" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D280" s="4"/>
-    </row>
-    <row r="281" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A281">
+      <c r="D280" s="7"/>
+    </row>
+    <row r="281" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A281" s="1">
         <v>253</v>
       </c>
-      <c r="B281" s="14"/>
-      <c r="C281" s="35" t="s">
+      <c r="B281" s="32"/>
+      <c r="C281" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D281" s="4"/>
-    </row>
-    <row r="282" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A282">
+      <c r="D281" s="7"/>
+    </row>
+    <row r="282" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A282" s="1">
         <v>254</v>
       </c>
-      <c r="B282" s="14"/>
-      <c r="C282" s="35" t="s">
+      <c r="B282" s="32"/>
+      <c r="C282" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="D282" s="4"/>
-    </row>
-    <row r="283" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A283">
+      <c r="D282" s="7"/>
+    </row>
+    <row r="283" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A283" s="1">
         <v>255</v>
       </c>
-      <c r="B283" s="14"/>
-      <c r="C283" s="35" t="s">
+      <c r="B283" s="32"/>
+      <c r="C283" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="D283" s="4"/>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284">
+      <c r="D283" s="7"/>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A284" s="1">
         <v>256</v>
       </c>
-      <c r="B284" s="14"/>
-      <c r="C284" s="13" t="s">
+      <c r="B284" s="32"/>
+      <c r="C284" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D284" s="31"/>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A285">
+      <c r="D284" s="21"/>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A285" s="1">
         <v>257</v>
       </c>
-      <c r="B285" s="14"/>
-      <c r="C285" s="13" t="s">
+      <c r="B285" s="32"/>
+      <c r="C285" s="29" t="s">
         <v>105</v>
       </c>
       <c r="D285" s="33"/>
     </row>
-    <row r="286" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A286">
+    <row r="286" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A286" s="1">
         <v>258</v>
       </c>
-      <c r="B286" s="14"/>
-      <c r="C286" s="35" t="s">
+      <c r="B286" s="32"/>
+      <c r="C286" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="D286" s="32"/>
-    </row>
-    <row r="287" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A287">
+      <c r="D286" s="24"/>
+    </row>
+    <row r="287" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A287" s="1">
         <v>259</v>
       </c>
-      <c r="B287" s="14"/>
-      <c r="C287" s="35" t="s">
+      <c r="B287" s="32"/>
+      <c r="C287" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D287" s="4"/>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A288">
+      <c r="D287" s="7"/>
+    </row>
+    <row r="288" spans="1:4" ht="52.5" x14ac:dyDescent="0.4">
+      <c r="A288" s="1">
         <v>260</v>
       </c>
-      <c r="B288" s="14"/>
-      <c r="C288" s="13" t="s">
+      <c r="B288" s="32"/>
+      <c r="C288" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D288" s="31"/>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A289">
+      <c r="D288" s="21"/>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A289" s="1">
         <v>261</v>
       </c>
-      <c r="B289" s="14"/>
-      <c r="C289" s="13" t="s">
+      <c r="B289" s="32"/>
+      <c r="C289" s="29" t="s">
         <v>107</v>
       </c>
       <c r="D289" s="33"/>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A290" s="1">
         <v>262</v>
       </c>
-      <c r="B290" s="14"/>
-      <c r="C290" s="13" t="s">
+      <c r="B290" s="32"/>
+      <c r="C290" s="29" t="s">
         <v>108</v>
       </c>
       <c r="D290" s="33"/>
     </row>
-    <row r="291" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A291">
+    <row r="291" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A291" s="1">
         <v>263</v>
       </c>
-      <c r="B291" s="14"/>
-      <c r="C291" s="35" t="s">
+      <c r="B291" s="32"/>
+      <c r="C291" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="D291" s="32"/>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A292">
+      <c r="D291" s="24"/>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A292" s="1">
         <v>264</v>
       </c>
-      <c r="B292" s="14"/>
-      <c r="C292" s="13" t="s">
+      <c r="B292" s="32"/>
+      <c r="C292" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="D292" s="31"/>
-    </row>
-    <row r="293" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A293">
+      <c r="D292" s="21"/>
+    </row>
+    <row r="293" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A293" s="1">
         <v>265</v>
       </c>
-      <c r="B293" s="14"/>
-      <c r="C293" s="35" t="s">
+      <c r="B293" s="32"/>
+      <c r="C293" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="D293" s="32"/>
-    </row>
-    <row r="294" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A294">
+      <c r="D293" s="24"/>
+    </row>
+    <row r="294" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A294" s="1">
         <v>266</v>
       </c>
-      <c r="B294" s="15"/>
-      <c r="C294" s="3"/>
-      <c r="D294" s="4"/>
-    </row>
-    <row r="295" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A295">
+      <c r="B294" s="36"/>
+      <c r="C294" s="6"/>
+      <c r="D294" s="7"/>
+    </row>
+    <row r="295" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A295" s="1">
         <v>267</v>
       </c>
-      <c r="B295" s="13"/>
-      <c r="C295" s="34" t="s">
+      <c r="B295" s="29"/>
+      <c r="C295" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D295" s="4"/>
-    </row>
-    <row r="296" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A296">
+      <c r="D295" s="7"/>
+    </row>
+    <row r="296" spans="1:4" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="A296" s="1">
         <v>268</v>
       </c>
-      <c r="B296" s="8" t="s">
+      <c r="B296" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="C296" s="13" t="s">
+      <c r="C296" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="D296" s="31"/>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297">
+      <c r="D296" s="21"/>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A297" s="1">
         <v>269</v>
       </c>
-      <c r="B297" s="14"/>
-      <c r="C297" s="13" t="s">
+      <c r="B297" s="32"/>
+      <c r="C297" s="29" t="s">
         <v>94</v>
       </c>
       <c r="D297" s="33"/>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A298">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A298" s="1">
         <v>270</v>
       </c>
-      <c r="B298" s="14"/>
-      <c r="C298" s="13" t="s">
+      <c r="B298" s="32"/>
+      <c r="C298" s="29" t="s">
         <v>95</v>
       </c>
       <c r="D298" s="33"/>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299">
+    <row r="299" spans="1:4" ht="52.5" x14ac:dyDescent="0.4">
+      <c r="A299" s="1">
         <v>271</v>
       </c>
-      <c r="B299" s="14"/>
-      <c r="C299" s="13" t="s">
+      <c r="B299" s="32"/>
+      <c r="C299" s="29" t="s">
         <v>96</v>
       </c>
       <c r="D299" s="33"/>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A300">
+    <row r="300" spans="1:4" ht="52.5" x14ac:dyDescent="0.4">
+      <c r="A300" s="1">
         <v>272</v>
       </c>
-      <c r="B300" s="14"/>
-      <c r="C300" s="13" t="s">
+      <c r="B300" s="32"/>
+      <c r="C300" s="29" t="s">
         <v>97</v>
       </c>
       <c r="D300" s="33"/>
     </row>
-    <row r="301" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A301">
+    <row r="301" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A301" s="1">
         <v>273</v>
       </c>
-      <c r="B301" s="14"/>
-      <c r="C301" s="35" t="s">
+      <c r="B301" s="32"/>
+      <c r="C301" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="D301" s="32"/>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A302">
+      <c r="D301" s="24"/>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A302" s="1">
         <v>274</v>
       </c>
-      <c r="B302" s="14"/>
-      <c r="C302" s="13" t="s">
+      <c r="B302" s="32"/>
+      <c r="C302" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D302" s="31"/>
-    </row>
-    <row r="303" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A303">
+      <c r="D302" s="21"/>
+    </row>
+    <row r="303" spans="1:4" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="A303" s="1">
         <v>275</v>
       </c>
-      <c r="B303" s="14"/>
-      <c r="C303" s="13" t="s">
+      <c r="B303" s="32"/>
+      <c r="C303" s="29" t="s">
         <v>99</v>
       </c>
       <c r="D303" s="33"/>
     </row>
-    <row r="304" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A304">
+    <row r="304" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A304" s="1">
         <v>276</v>
       </c>
-      <c r="B304" s="14"/>
-      <c r="C304" s="35" t="s">
+      <c r="B304" s="32"/>
+      <c r="C304" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="D304" s="32"/>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A305">
+      <c r="D304" s="24"/>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A305" s="1">
         <v>277</v>
       </c>
-      <c r="B305" s="14"/>
-      <c r="C305" s="13" t="s">
+      <c r="B305" s="32"/>
+      <c r="C305" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D305" s="31"/>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A306">
+      <c r="D305" s="21"/>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A306" s="1">
         <v>278</v>
       </c>
-      <c r="B306" s="14"/>
-      <c r="C306" s="13" t="s">
+      <c r="B306" s="32"/>
+      <c r="C306" s="29" t="s">
         <v>101</v>
       </c>
       <c r="D306" s="33"/>
     </row>
-    <row r="307" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A307">
+    <row r="307" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A307" s="1">
         <v>279</v>
       </c>
-      <c r="B307" s="14"/>
-      <c r="C307" s="35" t="s">
+      <c r="B307" s="32"/>
+      <c r="C307" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="D307" s="32"/>
-    </row>
-    <row r="308" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A308">
+      <c r="D307" s="24"/>
+    </row>
+    <row r="308" spans="1:4" ht="132" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A308" s="1">
         <v>280</v>
       </c>
-      <c r="B308" s="14"/>
-      <c r="C308" s="35" t="s">
+      <c r="B308" s="32"/>
+      <c r="C308" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="D308" s="4"/>
-    </row>
-    <row r="309" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A309">
+      <c r="D308" s="7"/>
+    </row>
+    <row r="309" spans="1:4" ht="158.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A309" s="1">
         <v>281</v>
       </c>
-      <c r="B309" s="14"/>
-      <c r="C309" s="35" t="s">
+      <c r="B309" s="32"/>
+      <c r="C309" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D309" s="4"/>
-    </row>
-    <row r="310" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A310">
+      <c r="D309" s="7"/>
+    </row>
+    <row r="310" spans="1:4" ht="237" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A310" s="1">
         <v>282</v>
       </c>
-      <c r="B310" s="14"/>
-      <c r="C310" s="35" t="s">
+      <c r="B310" s="32"/>
+      <c r="C310" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="D310" s="4"/>
-    </row>
-    <row r="311" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A311">
+      <c r="D310" s="7"/>
+    </row>
+    <row r="311" spans="1:4" ht="132" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A311" s="1">
         <v>283</v>
       </c>
-      <c r="B311" s="14"/>
-      <c r="C311" s="35" t="s">
+      <c r="B311" s="32"/>
+      <c r="C311" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D311" s="4"/>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A312">
+      <c r="D311" s="7"/>
+    </row>
+    <row r="312" spans="1:4" ht="52.5" x14ac:dyDescent="0.4">
+      <c r="A312" s="1">
         <v>284</v>
       </c>
-      <c r="B312" s="14"/>
-      <c r="C312" s="13" t="s">
+      <c r="B312" s="32"/>
+      <c r="C312" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D312" s="31"/>
-    </row>
-    <row r="313" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A313">
+      <c r="D312" s="21"/>
+    </row>
+    <row r="313" spans="1:4" ht="105" x14ac:dyDescent="0.4">
+      <c r="A313" s="1">
         <v>285</v>
       </c>
-      <c r="B313" s="14"/>
-      <c r="C313" s="13" t="s">
+      <c r="B313" s="32"/>
+      <c r="C313" s="29" t="s">
         <v>103</v>
       </c>
       <c r="D313" s="33"/>
     </row>
-    <row r="314" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A314">
+    <row r="314" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A314" s="1">
         <v>286</v>
       </c>
-      <c r="B314" s="14"/>
-      <c r="C314" s="35" t="s">
+      <c r="B314" s="32"/>
+      <c r="C314" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="D314" s="32"/>
-    </row>
-    <row r="315" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A315">
+      <c r="D314" s="24"/>
+    </row>
+    <row r="315" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A315" s="1">
         <v>287</v>
       </c>
-      <c r="B315" s="14"/>
-      <c r="C315" s="35" t="s">
+      <c r="B315" s="32"/>
+      <c r="C315" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="D315" s="4"/>
-    </row>
-    <row r="316" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A316">
+      <c r="D315" s="7"/>
+    </row>
+    <row r="316" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A316" s="1">
         <v>288</v>
       </c>
-      <c r="B316" s="14"/>
-      <c r="C316" s="35" t="s">
+      <c r="B316" s="32"/>
+      <c r="C316" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D316" s="4"/>
-    </row>
-    <row r="317" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A317">
+      <c r="D316" s="7"/>
+    </row>
+    <row r="317" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A317" s="1">
         <v>289</v>
       </c>
-      <c r="B317" s="14"/>
-      <c r="C317" s="35" t="s">
+      <c r="B317" s="32"/>
+      <c r="C317" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D317" s="4"/>
-    </row>
-    <row r="318" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A318">
+      <c r="D317" s="7"/>
+    </row>
+    <row r="318" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A318" s="1">
         <v>290</v>
       </c>
-      <c r="B318" s="14"/>
-      <c r="C318" s="35" t="s">
+      <c r="B318" s="32"/>
+      <c r="C318" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="D318" s="4"/>
-    </row>
-    <row r="319" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A319">
+      <c r="D318" s="7"/>
+    </row>
+    <row r="319" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A319" s="1">
         <v>291</v>
       </c>
-      <c r="B319" s="14"/>
-      <c r="C319" s="35" t="s">
+      <c r="B319" s="32"/>
+      <c r="C319" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="D319" s="4"/>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A320">
+      <c r="D319" s="7"/>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A320" s="1">
         <v>292</v>
       </c>
-      <c r="B320" s="14"/>
-      <c r="C320" s="13" t="s">
+      <c r="B320" s="32"/>
+      <c r="C320" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="D320" s="31"/>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A321">
+      <c r="D320" s="21"/>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A321" s="1">
         <v>293</v>
       </c>
-      <c r="B321" s="14"/>
-      <c r="C321" s="13" t="s">
+      <c r="B321" s="32"/>
+      <c r="C321" s="29" t="s">
         <v>105</v>
       </c>
       <c r="D321" s="33"/>
     </row>
-    <row r="322" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A322">
+    <row r="322" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A322" s="1">
         <v>294</v>
       </c>
-      <c r="B322" s="14"/>
-      <c r="C322" s="35" t="s">
+      <c r="B322" s="32"/>
+      <c r="C322" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="D322" s="32"/>
-    </row>
-    <row r="323" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A323">
+      <c r="D322" s="24"/>
+    </row>
+    <row r="323" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A323" s="1">
         <v>295</v>
       </c>
-      <c r="B323" s="14"/>
-      <c r="C323" s="35" t="s">
+      <c r="B323" s="32"/>
+      <c r="C323" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="D323" s="4"/>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A324">
+      <c r="D323" s="7"/>
+    </row>
+    <row r="324" spans="1:4" ht="52.5" x14ac:dyDescent="0.4">
+      <c r="A324" s="1">
         <v>296</v>
       </c>
-      <c r="B324" s="14"/>
-      <c r="C324" s="13" t="s">
+      <c r="B324" s="32"/>
+      <c r="C324" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="D324" s="31"/>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A325">
+      <c r="D324" s="21"/>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A325" s="1">
         <v>297</v>
       </c>
-      <c r="B325" s="14"/>
-      <c r="C325" s="13" t="s">
+      <c r="B325" s="32"/>
+      <c r="C325" s="29" t="s">
         <v>107</v>
       </c>
       <c r="D325" s="33"/>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A326">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A326" s="1">
         <v>298</v>
       </c>
-      <c r="B326" s="14"/>
-      <c r="C326" s="13" t="s">
+      <c r="B326" s="32"/>
+      <c r="C326" s="29" t="s">
         <v>108</v>
       </c>
       <c r="D326" s="33"/>
     </row>
-    <row r="327" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A327">
+    <row r="327" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A327" s="1">
         <v>299</v>
       </c>
-      <c r="B327" s="14"/>
-      <c r="C327" s="35" t="s">
+      <c r="B327" s="32"/>
+      <c r="C327" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="D327" s="32"/>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A328">
+      <c r="D327" s="24"/>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A328" s="1">
         <v>300</v>
       </c>
-      <c r="B328" s="14"/>
-      <c r="C328" s="13" t="s">
+      <c r="B328" s="32"/>
+      <c r="C328" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="D328" s="31"/>
-    </row>
-    <row r="329" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A329">
+      <c r="D328" s="21"/>
+    </row>
+    <row r="329" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A329" s="1">
         <v>301</v>
       </c>
-      <c r="B329" s="14"/>
-      <c r="C329" s="35" t="s">
+      <c r="B329" s="32"/>
+      <c r="C329" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="D329" s="32"/>
-    </row>
-    <row r="330" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A330">
+      <c r="D329" s="24"/>
+    </row>
+    <row r="330" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A330" s="1">
         <v>302</v>
       </c>
-      <c r="B330" s="15"/>
-      <c r="C330" s="3"/>
-      <c r="D330" s="4"/>
-    </row>
-    <row r="331" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A331">
+      <c r="B330" s="36"/>
+      <c r="C330" s="6"/>
+      <c r="D330" s="7"/>
+    </row>
+    <row r="331" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A331" s="1">
         <v>303</v>
       </c>
-      <c r="B331" s="13"/>
-      <c r="C331" s="34" t="s">
+      <c r="B331" s="29"/>
+      <c r="C331" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D331" s="4"/>
-    </row>
-    <row r="332" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A332">
+      <c r="D331" s="7"/>
+    </row>
+    <row r="332" spans="1:4" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="A332" s="1">
         <v>304</v>
       </c>
-      <c r="B332" s="8" t="s">
+      <c r="B332" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="C332" s="13"/>
-      <c r="D332" s="31"/>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A333">
+      <c r="C332" s="29"/>
+      <c r="D332" s="21"/>
+    </row>
+    <row r="333" spans="1:4" ht="52.5" x14ac:dyDescent="0.4">
+      <c r="A333" s="1">
         <v>305</v>
       </c>
-      <c r="B333" s="14"/>
-      <c r="C333" s="13" t="s">
+      <c r="B333" s="32"/>
+      <c r="C333" s="29" t="s">
         <v>133</v>
       </c>
       <c r="D333" s="33"/>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A334">
+    <row r="334" spans="1:4" ht="52.5" x14ac:dyDescent="0.4">
+      <c r="A334" s="1">
         <v>306</v>
       </c>
-      <c r="B334" s="14"/>
-      <c r="C334" s="13" t="s">
+      <c r="B334" s="32"/>
+      <c r="C334" s="29" t="s">
         <v>126</v>
       </c>
       <c r="D334" s="33"/>
     </row>
-    <row r="335" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A335">
+    <row r="335" spans="1:4" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="A335" s="1">
         <v>307</v>
       </c>
-      <c r="B335" s="14"/>
-      <c r="C335" s="13" t="s">
+      <c r="B335" s="32"/>
+      <c r="C335" s="29" t="s">
         <v>127</v>
       </c>
       <c r="D335" s="33"/>
     </row>
-    <row r="336" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A336">
+    <row r="336" spans="1:4" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="A336" s="1">
         <v>308</v>
       </c>
-      <c r="B336" s="14"/>
-      <c r="C336" s="13" t="s">
+      <c r="B336" s="32"/>
+      <c r="C336" s="29" t="s">
         <v>128</v>
       </c>
       <c r="D336" s="33"/>
     </row>
-    <row r="337" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A337">
+    <row r="337" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A337" s="1">
         <v>309</v>
       </c>
-      <c r="B337" s="14"/>
-      <c r="C337" s="35" t="s">
+      <c r="B337" s="32"/>
+      <c r="C337" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="D337" s="32"/>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338">
+      <c r="D337" s="24"/>
+    </row>
+    <row r="338" spans="1:4" ht="52.5" x14ac:dyDescent="0.4">
+      <c r="A338" s="1">
         <v>310</v>
       </c>
-      <c r="B338" s="14"/>
-      <c r="C338" s="13" t="s">
+      <c r="B338" s="32"/>
+      <c r="C338" s="29" t="s">
         <v>132</v>
       </c>
-      <c r="D338" s="31"/>
-    </row>
-    <row r="339" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A339">
+      <c r="D338" s="21"/>
+    </row>
+    <row r="339" spans="1:4" ht="78.75" x14ac:dyDescent="0.4">
+      <c r="A339" s="1">
         <v>311</v>
       </c>
-      <c r="B339" s="14"/>
-      <c r="C339" s="13" t="s">
+      <c r="B339" s="32"/>
+      <c r="C339" s="29" t="s">
         <v>130</v>
       </c>
       <c r="D339" s="33"/>
     </row>
-    <row r="340" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A340">
+    <row r="340" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A340" s="1">
         <v>312</v>
       </c>
-      <c r="B340" s="14"/>
-      <c r="C340" s="35" t="s">
+      <c r="B340" s="32"/>
+      <c r="C340" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="D340" s="32"/>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A341">
+      <c r="D340" s="24"/>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A341" s="1">
         <v>313</v>
       </c>
-      <c r="B341" s="14"/>
-      <c r="C341" s="13" t="s">
+      <c r="B341" s="32"/>
+      <c r="C341" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="D341" s="31"/>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A342">
+      <c r="D341" s="21"/>
+    </row>
+    <row r="342" spans="1:4" ht="52.5" x14ac:dyDescent="0.4">
+      <c r="A342" s="1">
         <v>314</v>
       </c>
-      <c r="B342" s="14"/>
-      <c r="C342" s="13" t="s">
+      <c r="B342" s="32"/>
+      <c r="C342" s="29" t="s">
         <v>134</v>
       </c>
       <c r="D342" s="33"/>
     </row>
-    <row r="343" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A343">
+    <row r="343" spans="1:4" ht="53.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A343" s="1">
         <v>315</v>
       </c>
-      <c r="B343" s="14"/>
-      <c r="C343" s="35" t="s">
+      <c r="B343" s="32"/>
+      <c r="C343" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="D343" s="32"/>
-    </row>
-    <row r="344" spans="1:4" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A344">
+      <c r="D343" s="24"/>
+    </row>
+    <row r="344" spans="1:4" ht="237" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A344" s="1">
         <v>316</v>
       </c>
-      <c r="B344" s="14"/>
-      <c r="C344" s="35" t="s">
+      <c r="B344" s="32"/>
+      <c r="C344" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="D344" s="4"/>
-    </row>
-    <row r="345" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A345">
+      <c r="D344" s="7"/>
+    </row>
+    <row r="345" spans="1:4" ht="237" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A345" s="1">
         <v>317</v>
       </c>
-      <c r="B345" s="14"/>
-      <c r="C345" s="35" t="s">
+      <c r="B345" s="32"/>
+      <c r="C345" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="D345" s="4"/>
-    </row>
-    <row r="346" spans="1:4" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A346">
+      <c r="D345" s="7"/>
+    </row>
+    <row r="346" spans="1:4" ht="315.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A346" s="1">
         <v>318</v>
       </c>
-      <c r="B346" s="14"/>
-      <c r="C346" s="35" t="s">
+      <c r="B346" s="32"/>
+      <c r="C346" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="D346" s="4"/>
-    </row>
-    <row r="347" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A347">
+      <c r="D346" s="7"/>
+    </row>
+    <row r="347" spans="1:4" ht="132" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A347" s="1">
         <v>319</v>
       </c>
-      <c r="B347" s="14"/>
-      <c r="C347" s="35" t="s">
+      <c r="B347" s="32"/>
+      <c r="C347" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="D347" s="4"/>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348">
+      <c r="D347" s="7"/>
+    </row>
+    <row r="348" spans="1:4" ht="52.5" x14ac:dyDescent="0.4">
+      <c r="A348" s="1">
         <v>320</v>
       </c>
-      <c r="B348" s="14"/>
-      <c r="C348" s="13" t="s">
+      <c r="B348" s="32"/>
+      <c r="C348" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="D348" s="31"/>
-    </row>
-    <row r="349" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A349">
+      <c r="D348" s="21"/>
+    </row>
+    <row r="349" spans="1:4" ht="183.75" x14ac:dyDescent="0.4">
+      <c r="A349" s="1">
         <v>321</v>
       </c>
-      <c r="B349" s="14"/>
-      <c r="C349" s="13" t="s">
+      <c r="B349" s="32"/>
+      <c r="C349" s="29" t="s">
         <v>140</v>
       </c>
       <c r="D349" s="33"/>
     </row>
-    <row r="350" spans="1:4" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A350">
+    <row r="350" spans="1:4" ht="210.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A350" s="1">
         <v>322</v>
       </c>
-      <c r="B350" s="14"/>
-      <c r="C350" s="35" t="s">
+      <c r="B350" s="32"/>
+      <c r="C350" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="D350" s="32"/>
-    </row>
-    <row r="351" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A351">
+      <c r="D350" s="24"/>
+    </row>
+    <row r="351" spans="1:4" ht="105.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A351" s="1">
         <v>323</v>
       </c>
-      <c r="B351" s="14"/>
-      <c r="C351" s="35" t="s">
+      <c r="B351" s="32"/>
+      <c r="C351" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="D351" s="4"/>
-    </row>
-    <row r="352" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A352">
+      <c r="D351" s="7"/>
+    </row>
+    <row r="352" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A352" s="1">
         <v>324</v>
       </c>
-      <c r="B352" s="14"/>
-      <c r="C352" s="35" t="s">
+      <c r="B352" s="32"/>
+      <c r="C352" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D352" s="4"/>
-    </row>
-    <row r="353" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A353">
+      <c r="D352" s="7"/>
+    </row>
+    <row r="353" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A353" s="1">
         <v>325</v>
       </c>
-      <c r="B353" s="14"/>
-      <c r="C353" s="35" t="s">
+      <c r="B353" s="32"/>
+      <c r="C353" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D353" s="4"/>
-    </row>
-    <row r="354" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A354">
+      <c r="D353" s="7"/>
+    </row>
+    <row r="354" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A354" s="1">
         <v>326</v>
       </c>
-      <c r="B354" s="14"/>
-      <c r="C354" s="6"/>
-      <c r="D354" s="4"/>
-    </row>
-    <row r="355" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A355">
+      <c r="B354" s="32"/>
+      <c r="C354" s="9"/>
+      <c r="D354" s="7"/>
+    </row>
+    <row r="355" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A355" s="1">
         <v>327</v>
       </c>
-      <c r="B355" s="14"/>
-      <c r="C355" s="6"/>
-      <c r="D355" s="4"/>
-    </row>
-    <row r="356" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A356">
+      <c r="B355" s="32"/>
+      <c r="C355" s="9"/>
+      <c r="D355" s="7"/>
+    </row>
+    <row r="356" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A356" s="1">
         <v>328</v>
       </c>
-      <c r="B356" s="14"/>
-      <c r="C356" s="6"/>
-      <c r="D356" s="4"/>
-    </row>
-    <row r="357" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A357">
+      <c r="B356" s="32"/>
+      <c r="C356" s="9"/>
+      <c r="D356" s="7"/>
+    </row>
+    <row r="357" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A357" s="1">
         <v>329</v>
       </c>
-      <c r="B357" s="14"/>
-      <c r="C357" s="6"/>
-      <c r="D357" s="4"/>
-    </row>
-    <row r="358" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A358">
+      <c r="B357" s="32"/>
+      <c r="C357" s="9"/>
+      <c r="D357" s="7"/>
+    </row>
+    <row r="358" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A358" s="1">
         <v>330</v>
       </c>
-      <c r="B358" s="14"/>
-      <c r="C358" s="6"/>
-      <c r="D358" s="4"/>
-    </row>
-    <row r="359" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A359">
+      <c r="B358" s="32"/>
+      <c r="C358" s="9"/>
+      <c r="D358" s="7"/>
+    </row>
+    <row r="359" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A359" s="1">
         <v>331</v>
       </c>
-      <c r="B359" s="15"/>
-      <c r="C359" s="3"/>
-      <c r="D359" s="4"/>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A360">
+      <c r="B359" s="36"/>
+      <c r="C359" s="6"/>
+      <c r="D359" s="7"/>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A360" s="1">
         <v>332</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B360" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C360" t="s">
+      <c r="C360" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A361">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A361" s="1">
         <v>333</v>
       </c>
-      <c r="C361" t="s">
+      <c r="C361" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A362">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A362" s="1">
         <v>334</v>
       </c>
-      <c r="C362" t="s">
+      <c r="C362" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A363">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A363" s="1">
         <v>335</v>
       </c>
-      <c r="C363" t="s">
+      <c r="C363" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A364">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A364" s="1">
         <v>336</v>
       </c>
-      <c r="C364" t="s">
+      <c r="C364" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A365">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A365" s="1">
         <v>337</v>
       </c>
-      <c r="C365" t="s">
+      <c r="C365" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A366">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A366" s="1">
         <v>338</v>
       </c>
-      <c r="C366" t="s">
+      <c r="C366" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A367">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A367" s="1">
         <v>339</v>
       </c>
-      <c r="C367" t="s">
+      <c r="C367" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A368">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A368" s="1">
         <v>340</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A369">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A369" s="1">
         <v>341</v>
       </c>
-      <c r="C369" t="s">
+      <c r="C369" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A370">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A370" s="1">
         <v>342</v>
       </c>
-      <c r="C370" t="s">
+      <c r="C370" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A371" s="1">
         <v>343</v>
       </c>
-      <c r="C371" t="s">
+      <c r="C371" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A372">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A372" s="1">
         <v>344</v>
       </c>
-      <c r="C372" t="s">
+      <c r="C372" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A373">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A373" s="1">
         <v>345</v>
       </c>
-      <c r="C373" t="s">
+      <c r="C373" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A374">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A374" s="1">
         <v>346</v>
       </c>
-      <c r="C374" t="s">
+      <c r="C374" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A375">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A375" s="1">
         <v>347</v>
       </c>
-      <c r="C375" t="s">
+      <c r="C375" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A376">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A376" s="1">
         <v>348</v>
       </c>
-      <c r="C376" t="s">
+      <c r="C376" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A377">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A377" s="1">
         <v>349</v>
       </c>
-      <c r="C377" t="s">
+      <c r="C377" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A378">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A378" s="1">
         <v>350</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A379">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A379" s="1">
         <v>351</v>
       </c>
-      <c r="C379" t="s">
+      <c r="C379" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A380">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A380" s="1">
         <v>352</v>
       </c>
-      <c r="C380" t="s">
+      <c r="C380" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A381">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A381" s="1">
         <v>353</v>
       </c>
-      <c r="C381" t="s">
+      <c r="C381" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A382">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A382" s="1">
         <v>354</v>
       </c>
-      <c r="C382" t="s">
+      <c r="C382" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A383">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A383" s="1">
         <v>355</v>
       </c>
-      <c r="C383" t="s">
+      <c r="C383" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A384">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A384" s="1">
         <v>356</v>
       </c>
-      <c r="C384" t="s">
+      <c r="C384" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A385">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A385" s="1">
         <v>357</v>
       </c>
-      <c r="C385" t="s">
+      <c r="C385" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A386">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A386" s="1">
         <v>358</v>
       </c>
-      <c r="C386" t="s">
+      <c r="C386" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A387">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A387" s="1">
         <v>359</v>
       </c>
-      <c r="C387" t="s">
+      <c r="C387" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A388">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A388" s="1">
         <v>360</v>
       </c>
-      <c r="C388" t="s">
+      <c r="C388" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A389">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A389" s="1">
         <v>361</v>
       </c>
-      <c r="C389" t="s">
+      <c r="C389" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A390">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A390" s="1">
         <v>362</v>
       </c>
-      <c r="C390" t="s">
+      <c r="C390" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A391">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A391" s="1">
         <v>363</v>
       </c>
-      <c r="C391" t="s">
+      <c r="C391" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A392">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A392" s="1">
         <v>364</v>
       </c>
-      <c r="C392" t="s">
+      <c r="C392" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A393">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A393" s="1">
         <v>365</v>
       </c>
-      <c r="C393" t="s">
+      <c r="C393" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A394">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A394" s="1">
         <v>366</v>
       </c>
-      <c r="C394" t="s">
+      <c r="C394" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A395">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A395" s="1">
         <v>367</v>
       </c>
-      <c r="C395" t="s">
+      <c r="C395" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A396">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A396" s="1">
         <v>368</v>
       </c>
-      <c r="C396" t="s">
+      <c r="C396" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A397">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A397" s="1">
         <v>369</v>
       </c>
-      <c r="C397" t="s">
+      <c r="C397" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A398">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A398" s="1">
         <v>370</v>
       </c>
-      <c r="C398" t="s">
+      <c r="C398" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A399">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A399" s="1">
         <v>371</v>
       </c>
-      <c r="C399" t="s">
+      <c r="C399" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A400">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A400" s="1">
         <v>372</v>
       </c>
-      <c r="C400" t="s">
+      <c r="C400" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A401">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A401" s="1">
         <v>373</v>
       </c>
-      <c r="C401" t="s">
+      <c r="C401" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A402">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A402" s="1">
         <v>374</v>
       </c>
-      <c r="C402" t="s">
+      <c r="C402" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A403">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A403" s="1">
         <v>375</v>
       </c>
-      <c r="C403" t="s">
+      <c r="C403" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A404">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A404" s="1">
         <v>376</v>
       </c>
-      <c r="C404" t="s">
+      <c r="C404" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A405">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A405" s="1">
         <v>377</v>
       </c>
-      <c r="B405" t="s">
+      <c r="B405" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C405" t="s">
+      <c r="C405" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A406">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A406" s="1">
         <v>378</v>
       </c>
-      <c r="C406" t="s">
+      <c r="C406" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A407">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A407" s="1">
         <v>379</v>
       </c>
-      <c r="C407" t="s">
+      <c r="C407" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A408">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A408" s="1">
         <v>380</v>
       </c>
-      <c r="C408" t="s">
+      <c r="C408" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A409">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A409" s="1">
         <v>381</v>
       </c>
-      <c r="C409" t="s">
+      <c r="C409" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A410">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A410" s="1">
         <v>382</v>
       </c>
-      <c r="C410" t="s">
+      <c r="C410" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A411">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A411" s="1">
         <v>383</v>
       </c>
-      <c r="C411" t="s">
+      <c r="C411" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A412">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A412" s="1">
         <v>384</v>
       </c>
-      <c r="C412" t="s">
+      <c r="C412" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A413">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A413" s="1">
         <v>385</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A414">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A414" s="1">
         <v>386</v>
       </c>
-      <c r="C414" t="s">
+      <c r="C414" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A415">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A415" s="1">
         <v>387</v>
       </c>
-      <c r="C415" t="s">
+      <c r="C415" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A416">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A416" s="1">
         <v>388</v>
       </c>
-      <c r="C416" t="s">
+      <c r="C416" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A417">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A417" s="1">
         <v>389</v>
       </c>
-      <c r="C417" t="s">
+      <c r="C417" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A418">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A418" s="1">
         <v>390</v>
       </c>
-      <c r="C418" t="s">
+      <c r="C418" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A419">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A419" s="1">
         <v>391</v>
       </c>
-      <c r="C419" t="s">
+      <c r="C419" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A420">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A420" s="1">
         <v>392</v>
       </c>
-      <c r="C420" t="s">
+      <c r="C420" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A421">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A421" s="1">
         <v>393</v>
       </c>
-      <c r="C421" t="s">
+      <c r="C421" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A422">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A422" s="1">
         <v>394</v>
       </c>
-      <c r="C422" t="s">
+      <c r="C422" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A423">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A423" s="1">
         <v>395</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A424">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A424" s="1">
         <v>396</v>
       </c>
-      <c r="C424" t="s">
+      <c r="C424" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A425">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A425" s="1">
         <v>397</v>
       </c>
-      <c r="C425" t="s">
+      <c r="C425" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A426">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A426" s="1">
         <v>398</v>
       </c>
-      <c r="C426" t="s">
+      <c r="C426" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A427">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A427" s="1">
         <v>399</v>
       </c>
-      <c r="C427" t="s">
+      <c r="C427" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A428">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A428" s="1">
         <v>400</v>
       </c>
-      <c r="C428" t="s">
+      <c r="C428" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A429">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A429" s="1">
         <v>401</v>
       </c>
-      <c r="C429" t="s">
+      <c r="C429" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A430">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A430" s="1">
         <v>402</v>
       </c>
-      <c r="C430" t="s">
+      <c r="C430" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A431">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A431" s="1">
         <v>403</v>
       </c>
-      <c r="C431" t="s">
+      <c r="C431" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A432">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A432" s="1">
         <v>404</v>
       </c>
-      <c r="C432" t="s">
+      <c r="C432" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A433">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A433" s="1">
         <v>405</v>
       </c>
-      <c r="C433" t="s">
+      <c r="C433" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A434">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A434" s="1">
         <v>406</v>
       </c>
-      <c r="C434" t="s">
+      <c r="C434" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A435">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A435" s="1">
         <v>407</v>
       </c>
-      <c r="C435" t="s">
+      <c r="C435" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A436">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A436" s="1">
         <v>408</v>
       </c>
-      <c r="C436" t="s">
+      <c r="C436" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A437">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A437" s="1">
         <v>409</v>
       </c>
-      <c r="C437" t="s">
+      <c r="C437" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A438">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A438" s="1">
         <v>410</v>
       </c>
-      <c r="C438" t="s">
+      <c r="C438" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A439">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A439" s="1">
         <v>411</v>
       </c>
-      <c r="C439" t="s">
+      <c r="C439" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A440">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A440" s="1">
         <v>412</v>
       </c>
-      <c r="C440" t="s">
+      <c r="C440" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A441">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A441" s="1">
         <v>413</v>
       </c>
-      <c r="C441" t="s">
+      <c r="C441" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A442">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A442" s="1">
         <v>414</v>
       </c>
-      <c r="C442" t="s">
+      <c r="C442" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A443">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A443" s="1">
         <v>415</v>
       </c>
-      <c r="C443" t="s">
+      <c r="C443" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A444">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A444" s="1">
         <v>416</v>
       </c>
-      <c r="C444" t="s">
+      <c r="C444" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A445">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A445" s="1">
         <v>417</v>
       </c>
-      <c r="C445" t="s">
+      <c r="C445" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A446">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A446" s="1">
         <v>418</v>
       </c>
-      <c r="C446" t="s">
+      <c r="C446" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A447">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A447" s="1">
         <v>419</v>
       </c>
-      <c r="C447" t="s">
+      <c r="C447" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A448">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A448" s="1">
         <v>420</v>
       </c>
-      <c r="C448" t="s">
+      <c r="C448" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A449">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A449" s="1">
         <v>421</v>
       </c>
-      <c r="C449" t="s">
+      <c r="C449" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A450">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A450" s="1">
         <v>422</v>
       </c>
-      <c r="B450" t="s">
+      <c r="B450" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C450" t="s">
+      <c r="C450" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A451">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A451" s="1">
         <v>423</v>
       </c>
-      <c r="C451" t="s">
+      <c r="C451" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A452">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A452" s="1">
         <v>424</v>
       </c>
-      <c r="C452" t="s">
+      <c r="C452" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A453">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A453" s="1">
         <v>425</v>
       </c>
-      <c r="C453" t="s">
+      <c r="C453" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A454">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A454" s="1">
         <v>426</v>
       </c>
-      <c r="C454" t="s">
+      <c r="C454" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A455">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A455" s="1">
         <v>427</v>
       </c>
-      <c r="C455" t="s">
+      <c r="C455" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A456">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A456" s="1">
         <v>428</v>
       </c>
-      <c r="C456" t="s">
+      <c r="C456" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A457">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A457" s="1">
         <v>429</v>
       </c>
-      <c r="C457" t="s">
+      <c r="C457" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A458">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A458" s="1">
         <v>430</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A459">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A459" s="1">
         <v>431</v>
       </c>
-      <c r="C459" t="s">
+      <c r="C459" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A460">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A460" s="1">
         <v>432</v>
       </c>
-      <c r="C460" t="s">
+      <c r="C460" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A461">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A461" s="1">
         <v>433</v>
       </c>
-      <c r="C461" t="s">
+      <c r="C461" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A462">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A462" s="1">
         <v>434</v>
       </c>
-      <c r="C462" t="s">
+      <c r="C462" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A463">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A463" s="1">
         <v>435</v>
       </c>
-      <c r="C463" t="s">
+      <c r="C463" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A464">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A464" s="1">
         <v>436</v>
       </c>
-      <c r="C464" t="s">
+      <c r="C464" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A465">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A465" s="1">
         <v>437</v>
       </c>
-      <c r="C465" t="s">
+      <c r="C465" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A466">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A466" s="1">
         <v>438</v>
       </c>
-      <c r="C466" t="s">
+      <c r="C466" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A467">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A467" s="1">
         <v>439</v>
       </c>
-      <c r="C467" t="s">
+      <c r="C467" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A468">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A468" s="1">
         <v>440</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A469">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A469" s="1">
         <v>441</v>
       </c>
-      <c r="C469" t="s">
+      <c r="C469" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A470">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A470" s="1">
         <v>442</v>
       </c>
-      <c r="C470" t="s">
+      <c r="C470" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A471">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A471" s="1">
         <v>443</v>
       </c>
-      <c r="C471" t="s">
+      <c r="C471" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A472">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A472" s="1">
         <v>444</v>
       </c>
-      <c r="C472" t="s">
+      <c r="C472" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A473">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A473" s="1">
         <v>445</v>
       </c>
-      <c r="C473" t="s">
+      <c r="C473" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A474">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A474" s="1">
         <v>446</v>
       </c>
-      <c r="C474" t="s">
+      <c r="C474" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A475">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A475" s="1">
         <v>447</v>
       </c>
-      <c r="C475" t="s">
+      <c r="C475" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A476">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A476" s="1">
         <v>448</v>
       </c>
-      <c r="C476" t="s">
+      <c r="C476" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A477">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A477" s="1">
         <v>449</v>
       </c>
-      <c r="C477" t="s">
+      <c r="C477" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A478">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A478" s="1">
         <v>450</v>
       </c>
-      <c r="C478" t="s">
+      <c r="C478" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A479">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A479" s="1">
         <v>451</v>
       </c>
-      <c r="C479" t="s">
+      <c r="C479" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A480">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A480" s="1">
         <v>452</v>
       </c>
-      <c r="C480" t="s">
+      <c r="C480" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A481">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A481" s="1">
         <v>453</v>
       </c>
-      <c r="C481" t="s">
+      <c r="C481" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A482">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A482" s="1">
         <v>454</v>
       </c>
-      <c r="C482" t="s">
+      <c r="C482" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A483">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A483" s="1">
         <v>455</v>
       </c>
-      <c r="C483" t="s">
+      <c r="C483" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A484">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A484" s="1">
         <v>456</v>
       </c>
-      <c r="C484" t="s">
+      <c r="C484" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A485">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A485" s="1">
         <v>457</v>
       </c>
-      <c r="C485" t="s">
+      <c r="C485" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A486">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A486" s="1">
         <v>458</v>
       </c>
-      <c r="C486" t="s">
+      <c r="C486" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A487">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A487" s="1">
         <v>459</v>
       </c>
-      <c r="C487" t="s">
+      <c r="C487" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A488">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A488" s="1">
         <v>460</v>
       </c>
-      <c r="C488" t="s">
+      <c r="C488" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A489">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A489" s="1">
         <v>461</v>
       </c>
-      <c r="C489" t="s">
+      <c r="C489" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A490">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A490" s="1">
         <v>462</v>
       </c>
-      <c r="C490" t="s">
+      <c r="C490" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A491">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A491" s="1">
         <v>463</v>
       </c>
-      <c r="C491" t="s">
+      <c r="C491" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A492">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A492" s="1">
         <v>464</v>
       </c>
-      <c r="C492" t="s">
+      <c r="C492" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A493">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A493" s="1">
         <v>465</v>
       </c>
-      <c r="C493" t="s">
+      <c r="C493" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A494">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A494" s="1">
         <v>466</v>
       </c>
-      <c r="C494" t="s">
+      <c r="C494" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A495">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A495" s="1">
         <v>467</v>
       </c>
-      <c r="B495" t="s">
+      <c r="B495" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C495" t="s">
+      <c r="C495" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A496">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A496" s="1">
         <v>468</v>
       </c>
-      <c r="C496" t="s">
+      <c r="C496" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A497">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A497" s="1">
         <v>469</v>
       </c>
-      <c r="C497" t="s">
+      <c r="C497" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A498">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A498" s="1">
         <v>470</v>
       </c>
-      <c r="C498" t="s">
+      <c r="C498" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A499">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A499" s="1">
         <v>471</v>
       </c>
-      <c r="C499" t="s">
+      <c r="C499" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A500">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A500" s="1">
         <v>472</v>
       </c>
-      <c r="C500" t="s">
+      <c r="C500" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A501">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A501" s="1">
         <v>473</v>
       </c>
-      <c r="C501" t="s">
+      <c r="C501" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A502">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A502" s="1">
         <v>474</v>
       </c>
-      <c r="C502" t="s">
+      <c r="C502" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A503">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A503" s="1">
         <v>475</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A504">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A504" s="1">
         <v>476</v>
       </c>
-      <c r="C504" t="s">
+      <c r="C504" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A505">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A505" s="1">
         <v>477</v>
       </c>
-      <c r="C505" t="s">
+      <c r="C505" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A506">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A506" s="1">
         <v>478</v>
       </c>
-      <c r="C506" t="s">
+      <c r="C506" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A507">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A507" s="1">
         <v>479</v>
       </c>
-      <c r="C507" t="s">
+      <c r="C507" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A508">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A508" s="1">
         <v>480</v>
       </c>
-      <c r="C508" t="s">
+      <c r="C508" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A509">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A509" s="1">
         <v>481</v>
       </c>
-      <c r="C509" t="s">
+      <c r="C509" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A510">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A510" s="1">
         <v>482</v>
       </c>
-      <c r="C510" t="s">
+      <c r="C510" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A511">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A511" s="1">
         <v>483</v>
       </c>
-      <c r="C511" t="s">
+      <c r="C511" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A512">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A512" s="1">
         <v>484</v>
       </c>
-      <c r="C512" t="s">
+      <c r="C512" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A513">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A513" s="1">
         <v>485</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A514">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A514" s="1">
         <v>486</v>
       </c>
-      <c r="C514" t="s">
+      <c r="C514" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A515">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A515" s="1">
         <v>487</v>
       </c>
-      <c r="C515" t="s">
+      <c r="C515" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A516">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A516" s="1">
         <v>488</v>
       </c>
-      <c r="C516" t="s">
+      <c r="C516" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A517">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A517" s="1">
         <v>489</v>
       </c>
-      <c r="C517" t="s">
+      <c r="C517" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A518">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A518" s="1">
         <v>490</v>
       </c>
-      <c r="C518" t="s">
+      <c r="C518" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A519">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A519" s="1">
         <v>491</v>
       </c>
-      <c r="C519" t="s">
+      <c r="C519" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A520">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A520" s="1">
         <v>492</v>
       </c>
-      <c r="C520" t="s">
+      <c r="C520" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A521">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A521" s="1">
         <v>493</v>
       </c>
-      <c r="C521" t="s">
+      <c r="C521" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A522">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A522" s="1">
         <v>494</v>
       </c>
-      <c r="C522" t="s">
+      <c r="C522" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A523">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A523" s="1">
         <v>495</v>
       </c>
-      <c r="C523" t="s">
+      <c r="C523" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A524">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A524" s="1">
         <v>496</v>
       </c>
-      <c r="C524" t="s">
+      <c r="C524" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A525">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A525" s="1">
         <v>497</v>
       </c>
-      <c r="C525" t="s">
+      <c r="C525" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A526">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A526" s="1">
         <v>498</v>
       </c>
-      <c r="C526" t="s">
+      <c r="C526" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A527">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A527" s="1">
         <v>499</v>
       </c>
-      <c r="C527" t="s">
+      <c r="C527" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A528">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A528" s="1">
         <v>500</v>
       </c>
-      <c r="C528" t="s">
+      <c r="C528" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A529">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A529" s="1">
         <v>501</v>
       </c>
-      <c r="C529" t="s">
+      <c r="C529" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A530">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A530" s="1">
         <v>502</v>
       </c>
-      <c r="C530" t="s">
+      <c r="C530" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A531">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A531" s="1">
         <v>503</v>
       </c>
-      <c r="C531" t="s">
+      <c r="C531" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A532">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A532" s="1">
         <v>504</v>
       </c>
-      <c r="C532" t="s">
+      <c r="C532" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A533">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A533" s="1">
         <v>505</v>
       </c>
-      <c r="C533" t="s">
+      <c r="C533" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A534">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A534" s="1">
         <v>506</v>
       </c>
-      <c r="C534" t="s">
+      <c r="C534" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A535">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A535" s="1">
         <v>507</v>
       </c>
-      <c r="C535" t="s">
+      <c r="C535" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A536">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A536" s="1">
         <v>508</v>
       </c>
-      <c r="C536" t="s">
+      <c r="C536" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A537">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A537" s="1">
         <v>509</v>
       </c>
-      <c r="C537" t="s">
+      <c r="C537" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A538">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A538" s="1">
         <v>510</v>
       </c>
-      <c r="C538" t="s">
+      <c r="C538" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A539">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A539" s="1">
         <v>511</v>
       </c>
-      <c r="C539" t="s">
+      <c r="C539" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A540">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A540" s="1">
         <v>512</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A541">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A541" s="1">
         <v>513</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A542">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A542" s="1">
         <v>514</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A543">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A543" s="1">
         <v>515</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A544">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A544" s="1">
         <v>516</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A545">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A545" s="1">
         <v>517</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A546">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A546" s="1">
         <v>518</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A547">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A547" s="1">
         <v>519</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A548">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A548" s="1">
         <v>520</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A549">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A549" s="1">
         <v>521</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A550">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A550" s="1">
         <v>522</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A551">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A551" s="1">
         <v>523</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A552">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A552" s="1">
         <v>524</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A553">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A553" s="1">
         <v>525</v>
       </c>
-      <c r="B553" t="s">
+      <c r="B553" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C553" t="s">
+      <c r="C553" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A554">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A554" s="1">
         <v>526</v>
       </c>
-      <c r="C554" t="s">
+      <c r="C554" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A555">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A555" s="1">
         <v>527</v>
       </c>
-      <c r="C555" t="s">
+      <c r="C555" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A556">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A556" s="1">
         <v>528</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A557">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A557" s="1">
         <v>529</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A558">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A558" s="1">
         <v>530</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A559">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A559" s="1">
         <v>531</v>
       </c>
-      <c r="B559" t="s">
+      <c r="B559" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A560">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A560" s="1">
         <v>532</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A561">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A561" s="1">
         <v>533</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A562">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A562" s="1">
         <v>534</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A563">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A563" s="1">
         <v>535</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A564">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A564" s="1">
         <v>536</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A565">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A565" s="1">
         <v>537</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A566">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A566" s="1">
         <v>538</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A567">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A567" s="1">
         <v>539</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A568">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A568" s="1">
         <v>540</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A569">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A569" s="1">
         <v>541</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A570">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A570" s="1">
         <v>542</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A571">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A571" s="1">
         <v>543</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A572">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A572" s="1">
         <v>544</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A573">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A573" s="1">
         <v>545</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A574">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A574" s="1">
         <v>546</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A575">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A575" s="1">
         <v>547</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A576">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A576" s="1">
         <v>548</v>
       </c>
     </row>
-    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A577">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A577" s="1">
         <v>549</v>
       </c>
     </row>
-    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A578">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A578" s="1">
         <v>550</v>
       </c>
     </row>
-    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A579">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A579" s="1">
         <v>551</v>
       </c>
     </row>
-    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A580">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A580" s="1">
         <v>552</v>
       </c>
     </row>
-    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A581">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A581" s="1">
         <v>553</v>
       </c>
     </row>
-    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A582">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A582" s="1">
         <v>554</v>
       </c>
     </row>
-    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A583">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A583" s="1">
         <v>555</v>
       </c>
     </row>
-    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A584">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A584" s="1">
         <v>556</v>
       </c>
     </row>
-    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A585">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A585" s="1">
         <v>557</v>
       </c>
     </row>
-    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A586">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A586" s="1">
         <v>558</v>
       </c>
     </row>
-    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A587">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A587" s="1">
         <v>559</v>
       </c>
     </row>
-    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A588">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A588" s="1">
         <v>560</v>
       </c>
     </row>
-    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A589">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A589" s="1">
         <v>561</v>
       </c>
     </row>
-    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A590">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A590" s="1">
         <v>562</v>
       </c>
     </row>
-    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A591">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A591" s="1">
         <v>563</v>
       </c>
     </row>
-    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A592">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A592" s="1">
         <v>564</v>
       </c>
     </row>
-    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A593">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A593" s="1">
         <v>565</v>
       </c>
     </row>
-    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A594">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A594" s="1">
         <v>566</v>
       </c>
     </row>
-    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A595">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A595" s="1">
         <v>567</v>
       </c>
     </row>
-    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A596">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A596" s="1">
         <v>568</v>
       </c>
     </row>
-    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A597">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A597" s="1">
         <v>569</v>
       </c>
     </row>
-    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A598">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A598" s="1">
         <v>570</v>
       </c>
     </row>
-    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A599">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A599" s="1">
         <v>571</v>
       </c>
     </row>
-    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A600">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A600" s="1">
         <v>572</v>
       </c>
     </row>
-    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A601">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A601" s="1">
         <v>573</v>
       </c>
     </row>
-    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A602">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A602" s="1">
         <v>574</v>
       </c>
     </row>
-    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A603">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A603" s="1">
         <v>575</v>
       </c>
     </row>
-    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A604">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A604" s="1">
         <v>576</v>
       </c>
     </row>
-    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A605">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A605" s="1">
         <v>577</v>
       </c>
     </row>
-    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A606">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A606" s="1">
         <v>578</v>
       </c>
     </row>
-    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A607">
+    <row r="607" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A607" s="1">
         <v>579</v>
       </c>
     </row>
-    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A608">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A608" s="1">
         <v>580</v>
       </c>
     </row>
-    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A609">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A609" s="1">
         <v>581</v>
       </c>
     </row>
-    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A610">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A610" s="1">
         <v>582</v>
       </c>
     </row>
-    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A611">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A611" s="1">
         <v>583</v>
       </c>
     </row>
-    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A612">
+    <row r="612" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A612" s="1">
         <v>584</v>
       </c>
     </row>
-    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A613">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A613" s="1">
         <v>585</v>
       </c>
     </row>
-    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A614">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A614" s="1">
         <v>586</v>
       </c>
     </row>
-    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A615">
+    <row r="615" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A615" s="1">
         <v>587</v>
       </c>
     </row>
-    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A616">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A616" s="1">
         <v>588</v>
       </c>
     </row>
-    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A617">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A617" s="1">
         <v>589</v>
       </c>
     </row>
-    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A618">
+    <row r="618" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A618" s="1">
         <v>590</v>
       </c>
     </row>
-    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A619">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A619" s="1">
         <v>591</v>
       </c>
     </row>
-    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A620">
+    <row r="620" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A620" s="1">
         <v>592</v>
       </c>
     </row>
-    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A621">
+    <row r="621" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A621" s="1">
         <v>593</v>
       </c>
     </row>
-    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A622">
+    <row r="622" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A622" s="1">
         <v>594</v>
       </c>
     </row>
-    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A623">
+    <row r="623" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A623" s="1">
         <v>595</v>
       </c>
     </row>
-    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A624">
+    <row r="624" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A624" s="1">
         <v>596</v>
       </c>
     </row>
-    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A625">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A625" s="1">
         <v>597</v>
       </c>
     </row>
-    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A626">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A626" s="1">
         <v>598</v>
       </c>
     </row>
-    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A627">
+    <row r="627" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A627" s="1">
         <v>599</v>
       </c>
     </row>
-    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A628">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A628" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A629">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A629" s="1">
         <v>601</v>
       </c>
     </row>
-    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A630">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A630" s="1">
         <v>602</v>
       </c>
     </row>
-    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A631">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A631" s="1">
         <v>603</v>
       </c>
     </row>
-    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A632">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A632" s="1">
         <v>604</v>
       </c>
     </row>
-    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A633">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A633" s="1">
         <v>605</v>
       </c>
     </row>
-    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A634">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A634" s="1">
         <v>606</v>
       </c>
     </row>
-    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A635">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A635" s="1">
         <v>607</v>
       </c>
     </row>
-    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A636">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A636" s="1">
         <v>608</v>
       </c>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A637">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A637" s="1">
         <v>609</v>
       </c>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A638">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A638" s="1">
         <v>610</v>
       </c>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A639">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A639" s="1">
         <v>611</v>
       </c>
     </row>
-    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A640">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A640" s="1">
         <v>612</v>
       </c>
     </row>
-    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A641">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A641" s="1">
         <v>613</v>
       </c>
     </row>
-    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A642">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A642" s="1">
         <v>614</v>
       </c>
     </row>
-    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A643">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A643" s="1">
         <v>615</v>
       </c>
     </row>
-    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A644">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A644" s="1">
         <v>616</v>
       </c>
     </row>
-    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A645">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A645" s="1">
         <v>617</v>
       </c>
     </row>
-    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A646">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A646" s="1">
         <v>618</v>
       </c>
     </row>
-    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A647">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A647" s="1">
         <v>619</v>
       </c>
     </row>
-    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A648">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A648" s="1">
         <v>620</v>
       </c>
     </row>
-    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A649">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A649" s="1">
         <v>621</v>
       </c>
     </row>
-    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A650">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A650" s="1">
         <v>622</v>
       </c>
     </row>
-    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A651">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A651" s="1">
         <v>623</v>
       </c>
     </row>
-    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A652">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A652" s="1">
         <v>624</v>
       </c>
     </row>
-    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A653">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A653" s="1">
         <v>625</v>
       </c>
     </row>
